--- a/5_df_output.xlsx
+++ b/5_df_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T327"/>
+  <dimension ref="A1:Q327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,21 +519,6 @@
           <t>OwnEa/S/P</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>totalCashFromOperatingActivitiesTTM</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>capitalExpendituresTTM</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>sharesOutstanding</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -589,15 +574,6 @@
       <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
-        <v>18287000</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>334094016</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -654,15 +630,6 @@
       </c>
       <c r="Q3" t="n">
         <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>98103000</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-11702000</v>
-      </c>
-      <c r="T3" t="n">
-        <v>728558976</v>
       </c>
     </row>
     <row r="4">
@@ -723,15 +690,6 @@
       <c r="Q4" t="n">
         <v>74</v>
       </c>
-      <c r="R4" t="n">
-        <v>3143000</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-130000</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7409800</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -787,15 +745,6 @@
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>136669</v>
-      </c>
-      <c r="S5" t="n">
-        <v>-93622</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -852,15 +801,6 @@
       </c>
       <c r="Q6" t="n">
         <v>-24</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-13696064</v>
-      </c>
-      <c r="S6" t="n">
-        <v>-17179587</v>
-      </c>
-      <c r="T6" t="n">
-        <v>32413700</v>
       </c>
     </row>
     <row r="7">
@@ -909,15 +849,6 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>-155201</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -969,15 +900,6 @@
       <c r="Q8" t="n">
         <v>-0</v>
       </c>
-      <c r="R8" t="n">
-        <v>-678000</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>112502000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1029,15 +951,6 @@
       <c r="Q9" t="n">
         <v>-0</v>
       </c>
-      <c r="R9" t="n">
-        <v>-131837000</v>
-      </c>
-      <c r="S9" t="n">
-        <v>-12857000</v>
-      </c>
-      <c r="T9" t="n">
-        <v>115097000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1098,15 +1011,6 @@
       </c>
       <c r="Q10" t="n">
         <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2724960</v>
-      </c>
-      <c r="S10" t="n">
-        <v>-356154</v>
-      </c>
-      <c r="T10" t="n">
-        <v>10056400</v>
       </c>
     </row>
     <row r="11">
@@ -1159,15 +1063,6 @@
       <c r="Q11" t="n">
         <v>-0</v>
       </c>
-      <c r="R11" t="n">
-        <v>-55762</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>56033600</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1228,15 +1123,6 @@
       </c>
       <c r="Q12" t="n">
         <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>317829</v>
-      </c>
-      <c r="S12" t="n">
-        <v>-6052</v>
-      </c>
-      <c r="T12" t="n">
-        <v>81799296</v>
       </c>
     </row>
     <row r="13">
@@ -1297,15 +1183,6 @@
       <c r="Q13" t="n">
         <v>-2</v>
       </c>
-      <c r="R13" t="n">
-        <v>-1508651</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>14996600</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1359,15 +1236,6 @@
       <c r="Q14" t="n">
         <v>-25</v>
       </c>
-      <c r="R14" t="n">
-        <v>-196362</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>14833</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1418,15 +1286,6 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
         <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>58072000</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>914252992</v>
       </c>
     </row>
     <row r="16">
@@ -1487,15 +1346,6 @@
       <c r="Q16" t="n">
         <v>-9</v>
       </c>
-      <c r="R16" t="n">
-        <v>441000</v>
-      </c>
-      <c r="S16" t="n">
-        <v>-2471000</v>
-      </c>
-      <c r="T16" t="n">
-        <v>23532300</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1556,15 +1406,6 @@
       </c>
       <c r="Q17" t="n">
         <v>-113</v>
-      </c>
-      <c r="R17" t="n">
-        <v>-6240000</v>
-      </c>
-      <c r="S17" t="n">
-        <v>-5813000</v>
-      </c>
-      <c r="T17" t="n">
-        <v>14226100</v>
       </c>
     </row>
     <row r="18">
@@ -1619,15 +1460,6 @@
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="n">
-        <v>-17193</v>
-      </c>
-      <c r="S18" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1681,15 +1513,6 @@
       <c r="Q19" t="n">
         <v>-17</v>
       </c>
-      <c r="R19" t="n">
-        <v>-3080957</v>
-      </c>
-      <c r="S19" t="n">
-        <v>-2112095</v>
-      </c>
-      <c r="T19" t="n">
-        <v>46451200</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1743,15 +1566,6 @@
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="n">
-        <v>-4940810</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1814,15 +1628,6 @@
       </c>
       <c r="Q21" t="n">
         <v>-29</v>
-      </c>
-      <c r="R21" t="n">
-        <v>-856900</v>
-      </c>
-      <c r="S21" t="n">
-        <v>-2000</v>
-      </c>
-      <c r="T21" t="n">
-        <v>4982400</v>
       </c>
     </row>
     <row r="22">
@@ -1880,15 +1685,6 @@
       </c>
       <c r="Q22" t="n">
         <v>-16</v>
-      </c>
-      <c r="R22" t="n">
-        <v>-6185104</v>
-      </c>
-      <c r="S22" t="n">
-        <v>-19034</v>
-      </c>
-      <c r="T22" t="n">
-        <v>13688400</v>
       </c>
     </row>
     <row r="23">
@@ -1941,15 +1737,6 @@
       <c r="Q23" t="n">
         <v>-113</v>
       </c>
-      <c r="R23" t="n">
-        <v>-653105</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>575455</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2010,15 +1797,6 @@
       </c>
       <c r="Q24" t="n">
         <v>65</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3586000</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>5477210</v>
       </c>
     </row>
     <row r="25">
@@ -2069,15 +1847,6 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="n">
-        <v>1233396</v>
-      </c>
-      <c r="S25" t="n">
-        <v>-182847</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2138,15 +1907,6 @@
       </c>
       <c r="Q26" t="n">
         <v>-23</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-274352000</v>
-      </c>
-      <c r="S26" t="n">
-        <v>-25301000</v>
-      </c>
-      <c r="T26" t="n">
-        <v>20436600</v>
       </c>
     </row>
     <row r="27">
@@ -2209,15 +1969,6 @@
       <c r="Q27" t="n">
         <v>-1</v>
       </c>
-      <c r="R27" t="n">
-        <v>-20382000</v>
-      </c>
-      <c r="S27" t="n">
-        <v>-5630000</v>
-      </c>
-      <c r="T27" t="n">
-        <v>213162000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2275,15 +2026,6 @@
       <c r="Q28" t="n">
         <v>-0</v>
       </c>
-      <c r="R28" t="n">
-        <v>-17761000</v>
-      </c>
-      <c r="S28" t="n">
-        <v>-21087000</v>
-      </c>
-      <c r="T28" t="n">
-        <v>149967008</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2345,15 +2087,6 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>8332409856</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2410,15 +2143,6 @@
       </c>
       <c r="Q30" t="n">
         <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1723156000</v>
-      </c>
-      <c r="S30" t="n">
-        <v>-29941000</v>
-      </c>
-      <c r="T30" t="n">
-        <v>592988992</v>
       </c>
     </row>
     <row r="31">
@@ -2481,15 +2205,6 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>16562900</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2551,15 +2266,6 @@
       <c r="Q32" t="n">
         <v>1</v>
       </c>
-      <c r="R32" t="n">
-        <v>120232745</v>
-      </c>
-      <c r="S32" t="n">
-        <v>-18133390</v>
-      </c>
-      <c r="T32" t="n">
-        <v>47500000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2618,15 +2324,6 @@
       </c>
       <c r="Q33" t="n">
         <v>-2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-8745821</v>
-      </c>
-      <c r="S33" t="n">
-        <v>-16862</v>
-      </c>
-      <c r="T33" t="n">
-        <v>159827008</v>
       </c>
     </row>
     <row r="34">
@@ -2677,15 +2374,6 @@
       <c r="Q34" t="n">
         <v>-0</v>
       </c>
-      <c r="R34" t="n">
-        <v>-145022</v>
-      </c>
-      <c r="S34" t="n">
-        <v>-160000</v>
-      </c>
-      <c r="T34" t="n">
-        <v>18850700</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2747,15 +2435,6 @@
       <c r="Q35" t="n">
         <v>-0</v>
       </c>
-      <c r="R35" t="n">
-        <v>-92806000</v>
-      </c>
-      <c r="S35" t="n">
-        <v>-55000</v>
-      </c>
-      <c r="T35" t="n">
-        <v>186764000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2811,15 +2490,6 @@
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="n">
-        <v>8729851334</v>
-      </c>
-      <c r="S36" t="n">
-        <v>-1453772796</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2875,15 +2545,6 @@
       <c r="Q37" t="n">
         <v>-0</v>
       </c>
-      <c r="R37" t="n">
-        <v>-1535912</v>
-      </c>
-      <c r="S37" t="n">
-        <v>-49656</v>
-      </c>
-      <c r="T37" t="n">
-        <v>4634770</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2940,15 +2601,6 @@
       </c>
       <c r="Q38" t="n">
         <v>-0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>-1938836</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>51472600</v>
       </c>
     </row>
     <row r="39">
@@ -3005,15 +2657,6 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="n">
-        <v>12022826</v>
-      </c>
-      <c r="S39" t="n">
-        <v>-84167</v>
-      </c>
-      <c r="T39" t="n">
-        <v>66520900</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3070,15 +2713,6 @@
       </c>
       <c r="Q40" t="n">
         <v>-0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>-566438</v>
-      </c>
-      <c r="S40" t="n">
-        <v>-45216</v>
-      </c>
-      <c r="T40" t="n">
-        <v>11935500</v>
       </c>
     </row>
     <row r="41">
@@ -3133,15 +2767,6 @@
       <c r="Q41" t="n">
         <v>-0</v>
       </c>
-      <c r="R41" t="n">
-        <v>-3587308</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>101838000</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3202,15 +2827,6 @@
       </c>
       <c r="Q42" t="n">
         <v>-0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>-1084202</v>
-      </c>
-      <c r="S42" t="n">
-        <v>-118428</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1366730</v>
       </c>
     </row>
     <row r="43">
@@ -3261,15 +2877,6 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>600000000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3319,15 +2926,6 @@
       <c r="Q44" t="n">
         <v>-0</v>
       </c>
-      <c r="R44" t="n">
-        <v>17620</v>
-      </c>
-      <c r="S44" t="n">
-        <v>-18624</v>
-      </c>
-      <c r="T44" t="n">
-        <v>52243300</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3383,15 +2981,6 @@
       <c r="Q45" t="n">
         <v>-0</v>
       </c>
-      <c r="R45" t="n">
-        <v>-348894</v>
-      </c>
-      <c r="S45" t="n">
-        <v>-336626</v>
-      </c>
-      <c r="T45" t="n">
-        <v>45796900</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3453,15 +3042,6 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="n">
-        <v>41137000</v>
-      </c>
-      <c r="S46" t="n">
-        <v>-738000</v>
-      </c>
-      <c r="T46" t="n">
-        <v>262175008</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3524,15 +3104,6 @@
       </c>
       <c r="Q47" t="n">
         <v>-0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>-7125862</v>
-      </c>
-      <c r="S47" t="n">
-        <v>-48875</v>
-      </c>
-      <c r="T47" t="n">
-        <v>7820460</v>
       </c>
     </row>
     <row r="48">
@@ -3593,15 +3164,6 @@
       <c r="Q48" t="n">
         <v>-0</v>
       </c>
-      <c r="R48" t="n">
-        <v>-567321000</v>
-      </c>
-      <c r="S48" t="n">
-        <v>-974179000</v>
-      </c>
-      <c r="T48" t="n">
-        <v>5653190144</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3662,15 +3224,6 @@
       </c>
       <c r="Q49" t="n">
         <v>-17</v>
-      </c>
-      <c r="R49" t="n">
-        <v>-3024390</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2218420</v>
       </c>
     </row>
     <row r="50">
@@ -3719,15 +3272,6 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="n">
-        <v>-8799000</v>
-      </c>
-      <c r="S50" t="n">
-        <v>-195000</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3785,15 +3329,6 @@
       <c r="Q51" t="n">
         <v>-1</v>
       </c>
-      <c r="R51" t="n">
-        <v>-234688</v>
-      </c>
-      <c r="S51" t="n">
-        <v>-1007060</v>
-      </c>
-      <c r="T51" t="n">
-        <v>15949200</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3854,15 +3389,6 @@
       </c>
       <c r="Q52" t="n">
         <v>3</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3594227000</v>
-      </c>
-      <c r="S52" t="n">
-        <v>-946489000</v>
-      </c>
-      <c r="T52" t="n">
-        <v>761289024</v>
       </c>
     </row>
     <row r="53">
@@ -3917,15 +3443,6 @@
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="n">
-        <v>-103102</v>
-      </c>
-      <c r="S53" t="n">
-        <v>-183820</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3988,15 +3505,6 @@
       </c>
       <c r="Q54" t="n">
         <v>-0</v>
-      </c>
-      <c r="R54" t="n">
-        <v>-5372000</v>
-      </c>
-      <c r="S54" t="n">
-        <v>-5997000</v>
-      </c>
-      <c r="T54" t="n">
-        <v>14657300</v>
       </c>
     </row>
     <row r="55">
@@ -4053,15 +3561,6 @@
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="n">
-        <v>-489000</v>
-      </c>
-      <c r="S55" t="n">
-        <v>-85000</v>
-      </c>
-      <c r="T55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4125,15 +3624,6 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" t="n">
-        <v>68412000</v>
-      </c>
-      <c r="S56" t="n">
-        <v>-1222000</v>
-      </c>
-      <c r="T56" t="n">
-        <v>31675800</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4189,15 +3679,6 @@
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="n">
-        <v>-672612</v>
-      </c>
-      <c r="S57" t="n">
-        <v>-197909</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4247,15 +3728,6 @@
       <c r="Q58" t="n">
         <v>-1</v>
       </c>
-      <c r="R58" t="n">
-        <v>-901355</v>
-      </c>
-      <c r="S58" t="n">
-        <v>-1609678</v>
-      </c>
-      <c r="T58" t="n">
-        <v>22876400</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4319,15 +3791,6 @@
       <c r="Q59" t="n">
         <v>-0</v>
       </c>
-      <c r="R59" t="n">
-        <v>-2221000</v>
-      </c>
-      <c r="S59" t="n">
-        <v>-1489000</v>
-      </c>
-      <c r="T59" t="n">
-        <v>19027700</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4388,15 +3851,6 @@
       </c>
       <c r="Q60" t="n">
         <v>0</v>
-      </c>
-      <c r="R60" t="n">
-        <v>682000</v>
-      </c>
-      <c r="S60" t="n">
-        <v>-85000</v>
-      </c>
-      <c r="T60" t="n">
-        <v>9157740</v>
       </c>
     </row>
     <row r="61">
@@ -4453,15 +3907,6 @@
         </is>
       </c>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="n">
-        <v>12700205087</v>
-      </c>
-      <c r="S61" t="n">
-        <v>-5160893206</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4523,15 +3968,6 @@
       <c r="Q62" t="n">
         <v>-1</v>
       </c>
-      <c r="R62" t="n">
-        <v>-26389000</v>
-      </c>
-      <c r="S62" t="n">
-        <v>-11777000</v>
-      </c>
-      <c r="T62" t="n">
-        <v>361767008</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4594,15 +4030,6 @@
       </c>
       <c r="Q63" t="n">
         <v>-0</v>
-      </c>
-      <c r="R63" t="n">
-        <v>-8616000</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>12655000</v>
       </c>
     </row>
     <row r="64">
@@ -4662,15 +4089,6 @@
       </c>
       <c r="Q64" t="n">
         <v>-0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>-5835068</v>
-      </c>
-      <c r="S64" t="n">
-        <v>-1445664</v>
-      </c>
-      <c r="T64" t="n">
-        <v>57038900</v>
       </c>
     </row>
     <row r="65">
@@ -4731,15 +4149,6 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="n">
-        <v>722505000</v>
-      </c>
-      <c r="S65" t="n">
-        <v>-158883000</v>
-      </c>
-      <c r="T65" t="n">
-        <v>639718976</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4787,15 +4196,6 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="n">
-        <v>-2120551</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4857,15 +4257,6 @@
       <c r="Q67" t="n">
         <v>-0</v>
       </c>
-      <c r="R67" t="n">
-        <v>-6027055</v>
-      </c>
-      <c r="S67" t="n">
-        <v>-27210</v>
-      </c>
-      <c r="T67" t="n">
-        <v>26187600</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4928,15 +4319,6 @@
       </c>
       <c r="Q68" t="n">
         <v>-0</v>
-      </c>
-      <c r="R68" t="n">
-        <v>-21727000</v>
-      </c>
-      <c r="S68" t="n">
-        <v>-1065000</v>
-      </c>
-      <c r="T68" t="n">
-        <v>111781000</v>
       </c>
     </row>
     <row r="69">
@@ -4998,15 +4380,6 @@
       </c>
       <c r="Q69" t="n">
         <v>-0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>-921000</v>
-      </c>
-      <c r="S69" t="n">
-        <v>-52000</v>
-      </c>
-      <c r="T69" t="n">
-        <v>12500000</v>
       </c>
     </row>
     <row r="70">
@@ -5057,15 +4430,6 @@
       <c r="Q70" t="n">
         <v>1</v>
       </c>
-      <c r="R70" t="n">
-        <v>15826000</v>
-      </c>
-      <c r="S70" t="n">
-        <v>-1242000</v>
-      </c>
-      <c r="T70" t="n">
-        <v>77245504</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5127,15 +4491,6 @@
       <c r="Q71" t="n">
         <v>-1</v>
       </c>
-      <c r="R71" t="n">
-        <v>-438000000</v>
-      </c>
-      <c r="S71" t="n">
-        <v>-265000000</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1122809984</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5198,15 +4553,6 @@
       </c>
       <c r="Q72" t="n">
         <v>0</v>
-      </c>
-      <c r="R72" t="n">
-        <v>113323000</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>230848000</v>
       </c>
     </row>
     <row r="73">
@@ -5261,15 +4607,6 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="n">
-        <v>1259000</v>
-      </c>
-      <c r="S73" t="n">
-        <v>-2000</v>
-      </c>
-      <c r="T73" t="n">
-        <v>2055070</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5327,15 +4664,6 @@
       <c r="Q74" t="n">
         <v>-4</v>
       </c>
-      <c r="R74" t="n">
-        <v>45436000</v>
-      </c>
-      <c r="S74" t="n">
-        <v>-149728000</v>
-      </c>
-      <c r="T74" t="n">
-        <v>65248200</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5393,15 +4721,6 @@
       <c r="Q75" t="n">
         <v>-0</v>
       </c>
-      <c r="R75" t="n">
-        <v>-3329402</v>
-      </c>
-      <c r="S75" t="n">
-        <v>-360290</v>
-      </c>
-      <c r="T75" t="n">
-        <v>138200992</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5458,15 +4777,6 @@
       </c>
       <c r="Q76" t="n">
         <v>-0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>-407000</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
-        <v>60378100</v>
       </c>
     </row>
     <row r="77">
@@ -5527,15 +4837,6 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="n">
-        <v>224454</v>
-      </c>
-      <c r="S77" t="n">
-        <v>-53092</v>
-      </c>
-      <c r="T77" t="n">
-        <v>4772320</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5597,15 +4898,6 @@
       <c r="Q78" t="n">
         <v>-0</v>
       </c>
-      <c r="R78" t="n">
-        <v>-532000</v>
-      </c>
-      <c r="S78" t="n">
-        <v>-1104000</v>
-      </c>
-      <c r="T78" t="n">
-        <v>25000000</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5667,15 +4959,6 @@
       <c r="Q79" t="n">
         <v>-0</v>
       </c>
-      <c r="R79" t="n">
-        <v>-16539000</v>
-      </c>
-      <c r="S79" t="n">
-        <v>-10598000</v>
-      </c>
-      <c r="T79" t="n">
-        <v>330492000</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5735,15 +5018,6 @@
       <c r="Q80" t="n">
         <v>-1</v>
       </c>
-      <c r="R80" t="n">
-        <v>-49398000</v>
-      </c>
-      <c r="S80" t="n">
-        <v>-23426000</v>
-      </c>
-      <c r="T80" t="n">
-        <v>32114100</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5805,15 +5079,6 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
-      <c r="R81" t="n">
-        <v>54085000</v>
-      </c>
-      <c r="S81" t="n">
-        <v>-14520000</v>
-      </c>
-      <c r="T81" t="n">
-        <v>60616500</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5874,15 +5139,6 @@
       </c>
       <c r="Q82" t="n">
         <v>-0</v>
-      </c>
-      <c r="R82" t="n">
-        <v>-314000</v>
-      </c>
-      <c r="S82" t="n">
-        <v>-15000</v>
-      </c>
-      <c r="T82" t="n">
-        <v>220226000</v>
       </c>
     </row>
     <row r="83">
@@ -5931,15 +5187,6 @@
       <c r="Q83" t="n">
         <v>-0</v>
       </c>
-      <c r="R83" t="n">
-        <v>-802725</v>
-      </c>
-      <c r="S83" t="n">
-        <v>-162400</v>
-      </c>
-      <c r="T83" t="n">
-        <v>25972300</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6000,15 +5247,6 @@
       </c>
       <c r="Q84" t="n">
         <v>3</v>
-      </c>
-      <c r="R84" t="n">
-        <v>3016581000</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" t="n">
-        <v>790603008</v>
       </c>
     </row>
     <row r="85">
@@ -6071,15 +5309,6 @@
       <c r="Q85" t="n">
         <v>-0</v>
       </c>
-      <c r="R85" t="n">
-        <v>2581000</v>
-      </c>
-      <c r="S85" t="n">
-        <v>-3031000</v>
-      </c>
-      <c r="T85" t="n">
-        <v>52060700</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6140,15 +5369,6 @@
       </c>
       <c r="Q86" t="n">
         <v>-0</v>
-      </c>
-      <c r="R86" t="n">
-        <v>-70100</v>
-      </c>
-      <c r="S86" t="n">
-        <v>-216375</v>
-      </c>
-      <c r="T86" t="n">
-        <v>867781</v>
       </c>
     </row>
     <row r="87">
@@ -6203,15 +5423,6 @@
       <c r="Q87" t="n">
         <v>-0</v>
       </c>
-      <c r="R87" t="n">
-        <v>-1600000</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" t="n">
-        <v>92488200</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6273,15 +5484,6 @@
       <c r="Q88" t="n">
         <v>1</v>
       </c>
-      <c r="R88" t="n">
-        <v>120840000</v>
-      </c>
-      <c r="S88" t="n">
-        <v>-10676000</v>
-      </c>
-      <c r="T88" t="n">
-        <v>21577800</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6341,15 +5543,6 @@
       <c r="Q89" t="n">
         <v>-0</v>
       </c>
-      <c r="R89" t="n">
-        <v>-4088159</v>
-      </c>
-      <c r="S89" t="n">
-        <v>-26303</v>
-      </c>
-      <c r="T89" t="n">
-        <v>9637050</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6411,15 +5604,6 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
-      <c r="R90" t="n">
-        <v>58286000</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0</v>
-      </c>
-      <c r="T90" t="n">
-        <v>661811008</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6479,15 +5663,6 @@
       <c r="Q91" t="n">
         <v>-1</v>
       </c>
-      <c r="R91" t="n">
-        <v>-19865617</v>
-      </c>
-      <c r="S91" t="n">
-        <v>-149938</v>
-      </c>
-      <c r="T91" t="n">
-        <v>117343000</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6550,15 +5725,6 @@
       </c>
       <c r="Q92" t="n">
         <v>-0</v>
-      </c>
-      <c r="R92" t="n">
-        <v>-2227538</v>
-      </c>
-      <c r="S92" t="n">
-        <v>-4541537</v>
-      </c>
-      <c r="T92" t="n">
-        <v>17968200</v>
       </c>
     </row>
     <row r="93">
@@ -6609,15 +5775,6 @@
       <c r="Q93" t="n">
         <v>-0</v>
       </c>
-      <c r="R93" t="n">
-        <v>-1629040</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0</v>
-      </c>
-      <c r="T93" t="n">
-        <v>41628000</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6678,15 +5835,6 @@
       </c>
       <c r="Q94" t="n">
         <v>0</v>
-      </c>
-      <c r="R94" t="n">
-        <v>576053</v>
-      </c>
-      <c r="S94" t="n">
-        <v>-72128</v>
-      </c>
-      <c r="T94" t="n">
-        <v>5765770</v>
       </c>
     </row>
     <row r="95">
@@ -6737,15 +5885,6 @@
       <c r="Q95" t="n">
         <v>-0</v>
       </c>
-      <c r="R95" t="n">
-        <v>-14464000</v>
-      </c>
-      <c r="S95" t="n">
-        <v>-400000</v>
-      </c>
-      <c r="T95" t="n">
-        <v>186420000</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6807,15 +5946,6 @@
       <c r="Q96" t="n">
         <v>-0</v>
       </c>
-      <c r="R96" t="n">
-        <v>-13802000</v>
-      </c>
-      <c r="S96" t="n">
-        <v>0</v>
-      </c>
-      <c r="T96" t="n">
-        <v>17540500</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6873,15 +6003,6 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="n">
-        <v>4938207</v>
-      </c>
-      <c r="S97" t="n">
-        <v>-252521</v>
-      </c>
-      <c r="T97" t="n">
-        <v>38661600</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6944,15 +6065,6 @@
       </c>
       <c r="Q98" t="n">
         <v>-1</v>
-      </c>
-      <c r="R98" t="n">
-        <v>-38900000</v>
-      </c>
-      <c r="S98" t="n">
-        <v>-22300000</v>
-      </c>
-      <c r="T98" t="n">
-        <v>21685900</v>
       </c>
     </row>
     <row r="99">
@@ -7011,15 +6123,6 @@
       <c r="Q99" t="n">
         <v>-2</v>
       </c>
-      <c r="R99" t="n">
-        <v>-534831</v>
-      </c>
-      <c r="S99" t="n">
-        <v>-420474</v>
-      </c>
-      <c r="T99" t="n">
-        <v>12097800</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7073,15 +6176,6 @@
       <c r="Q100" t="n">
         <v>1</v>
       </c>
-      <c r="R100" t="n">
-        <v>42203000000</v>
-      </c>
-      <c r="S100" t="n">
-        <v>-2296000000</v>
-      </c>
-      <c r="T100" t="n">
-        <v>8275359744</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7143,15 +6237,6 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
-      <c r="R101" t="n">
-        <v>2826000</v>
-      </c>
-      <c r="S101" t="n">
-        <v>-1183000</v>
-      </c>
-      <c r="T101" t="n">
-        <v>85963696</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7213,15 +6298,6 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
-      <c r="R102" t="n">
-        <v>74917000</v>
-      </c>
-      <c r="S102" t="n">
-        <v>0</v>
-      </c>
-      <c r="T102" t="n">
-        <v>238268000</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7283,15 +6359,6 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
-      <c r="R103" t="n">
-        <v>13458000</v>
-      </c>
-      <c r="S103" t="n">
-        <v>-6992000</v>
-      </c>
-      <c r="T103" t="n">
-        <v>74033296</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7347,15 +6414,6 @@
         </is>
       </c>
       <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="n">
-        <v>2440431468</v>
-      </c>
-      <c r="S104" t="n">
-        <v>-905332673</v>
-      </c>
-      <c r="T104" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7413,15 +6471,6 @@
       <c r="Q105" t="n">
         <v>-0</v>
       </c>
-      <c r="R105" t="n">
-        <v>-134000</v>
-      </c>
-      <c r="S105" t="n">
-        <v>-123000</v>
-      </c>
-      <c r="T105" t="n">
-        <v>145752000</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7477,15 +6526,6 @@
         </is>
       </c>
       <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="n">
-        <v>735000</v>
-      </c>
-      <c r="S106" t="n">
-        <v>-318000</v>
-      </c>
-      <c r="T106" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7546,15 +6586,6 @@
       </c>
       <c r="Q107" t="n">
         <v>-0</v>
-      </c>
-      <c r="R107" t="n">
-        <v>753004</v>
-      </c>
-      <c r="S107" t="n">
-        <v>-1350000</v>
-      </c>
-      <c r="T107" t="n">
-        <v>4267120</v>
       </c>
     </row>
     <row r="108">
@@ -7617,15 +6648,6 @@
       <c r="Q108" t="n">
         <v>-0</v>
       </c>
-      <c r="R108" t="n">
-        <v>16531000</v>
-      </c>
-      <c r="S108" t="n">
-        <v>-76540000</v>
-      </c>
-      <c r="T108" t="n">
-        <v>128752000</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7688,15 +6710,6 @@
       </c>
       <c r="Q109" t="n">
         <v>0</v>
-      </c>
-      <c r="R109" t="n">
-        <v>1958000</v>
-      </c>
-      <c r="S109" t="n">
-        <v>-627000</v>
-      </c>
-      <c r="T109" t="n">
-        <v>6097070</v>
       </c>
     </row>
     <row r="110">
@@ -7759,15 +6772,6 @@
       <c r="Q110" t="n">
         <v>-3</v>
       </c>
-      <c r="R110" t="n">
-        <v>-2820167882</v>
-      </c>
-      <c r="S110" t="n">
-        <v>-152367688</v>
-      </c>
-      <c r="T110" t="n">
-        <v>1605720064</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7829,15 +6833,6 @@
       <c r="Q111" t="n">
         <v>-0</v>
       </c>
-      <c r="R111" t="n">
-        <v>-7601000</v>
-      </c>
-      <c r="S111" t="n">
-        <v>-270000</v>
-      </c>
-      <c r="T111" t="n">
-        <v>54327000</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7899,15 +6894,6 @@
       <c r="Q112" t="n">
         <v>-0</v>
       </c>
-      <c r="R112" t="n">
-        <v>-5815000</v>
-      </c>
-      <c r="S112" t="n">
-        <v>-2911000</v>
-      </c>
-      <c r="T112" t="n">
-        <v>84620600</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7965,15 +6951,6 @@
       <c r="Q113" t="n">
         <v>-0</v>
       </c>
-      <c r="R113" t="n">
-        <v>-21419339</v>
-      </c>
-      <c r="S113" t="n">
-        <v>0</v>
-      </c>
-      <c r="T113" t="n">
-        <v>35991800</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8035,15 +7012,6 @@
       <c r="Q114" t="n">
         <v>-1</v>
       </c>
-      <c r="R114" t="n">
-        <v>-12742000</v>
-      </c>
-      <c r="S114" t="n">
-        <v>-5019000</v>
-      </c>
-      <c r="T114" t="n">
-        <v>7476680</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8104,15 +7072,6 @@
       </c>
       <c r="Q115" t="n">
         <v>-0</v>
-      </c>
-      <c r="R115" t="n">
-        <v>12863000000</v>
-      </c>
-      <c r="S115" t="n">
-        <v>-16007000000</v>
-      </c>
-      <c r="T115" t="n">
-        <v>15783900160</v>
       </c>
     </row>
     <row r="116">
@@ -8165,15 +7124,6 @@
       <c r="Q116" t="n">
         <v>-1</v>
       </c>
-      <c r="R116" t="n">
-        <v>-33008895</v>
-      </c>
-      <c r="S116" t="n">
-        <v>-13314520</v>
-      </c>
-      <c r="T116" t="n">
-        <v>65059200</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8235,15 +7185,6 @@
       <c r="Q117" t="n">
         <v>12</v>
       </c>
-      <c r="R117" t="n">
-        <v>50920864000</v>
-      </c>
-      <c r="S117" t="n">
-        <v>-11824239000</v>
-      </c>
-      <c r="T117" t="n">
-        <v>4909000192</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8300,15 +7241,6 @@
       </c>
       <c r="Q118" t="n">
         <v>0</v>
-      </c>
-      <c r="R118" t="n">
-        <v>19577000</v>
-      </c>
-      <c r="S118" t="n">
-        <v>-3608000</v>
-      </c>
-      <c r="T118" t="n">
-        <v>519155008</v>
       </c>
     </row>
     <row r="119">
@@ -8359,15 +7291,6 @@
       <c r="Q119" t="n">
         <v>-0</v>
       </c>
-      <c r="R119" t="n">
-        <v>257426</v>
-      </c>
-      <c r="S119" t="n">
-        <v>-3613026</v>
-      </c>
-      <c r="T119" t="n">
-        <v>115182000</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8425,15 +7348,6 @@
         </is>
       </c>
       <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="n">
-        <v>1847000</v>
-      </c>
-      <c r="S120" t="n">
-        <v>0</v>
-      </c>
-      <c r="T120" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8487,15 +7401,6 @@
         </is>
       </c>
       <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="n">
-        <v>-1390151</v>
-      </c>
-      <c r="S121" t="n">
-        <v>-22379</v>
-      </c>
-      <c r="T121" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8557,15 +7462,6 @@
       <c r="Q122" t="n">
         <v>-0</v>
       </c>
-      <c r="R122" t="n">
-        <v>-3822706</v>
-      </c>
-      <c r="S122" t="n">
-        <v>-2108941</v>
-      </c>
-      <c r="T122" t="n">
-        <v>130650000</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8628,15 +7524,6 @@
       </c>
       <c r="Q123" t="n">
         <v>-1</v>
-      </c>
-      <c r="R123" t="n">
-        <v>-9094000</v>
-      </c>
-      <c r="S123" t="n">
-        <v>-6832000</v>
-      </c>
-      <c r="T123" t="n">
-        <v>6518180</v>
       </c>
     </row>
     <row r="124">
@@ -8697,15 +7584,6 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
-      <c r="R124" t="n">
-        <v>573640</v>
-      </c>
-      <c r="S124" t="n">
-        <v>-14370</v>
-      </c>
-      <c r="T124" t="n">
-        <v>1018000</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8755,15 +7633,6 @@
       <c r="Q125" t="n">
         <v>-1</v>
       </c>
-      <c r="R125" t="n">
-        <v>-748325</v>
-      </c>
-      <c r="S125" t="n">
-        <v>-3451260</v>
-      </c>
-      <c r="T125" t="n">
-        <v>29738500</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8819,15 +7688,6 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
-      <c r="R126" t="n">
-        <v>967149</v>
-      </c>
-      <c r="S126" t="n">
-        <v>0</v>
-      </c>
-      <c r="T126" t="n">
-        <v>25012600</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8890,15 +7750,6 @@
       </c>
       <c r="Q127" t="n">
         <v>0</v>
-      </c>
-      <c r="R127" t="n">
-        <v>62893000</v>
-      </c>
-      <c r="S127" t="n">
-        <v>0</v>
-      </c>
-      <c r="T127" t="n">
-        <v>107328000</v>
       </c>
     </row>
     <row r="128">
@@ -8961,15 +7812,6 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
-      <c r="R128" t="n">
-        <v>3867432000</v>
-      </c>
-      <c r="S128" t="n">
-        <v>-2809637000</v>
-      </c>
-      <c r="T128" t="n">
-        <v>3591000064</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9026,15 +7868,6 @@
       </c>
       <c r="Q129" t="n">
         <v>-0</v>
-      </c>
-      <c r="R129" t="n">
-        <v>257900000</v>
-      </c>
-      <c r="S129" t="n">
-        <v>-274100000</v>
-      </c>
-      <c r="T129" t="n">
-        <v>580708992</v>
       </c>
     </row>
     <row r="130">
@@ -9091,15 +7924,6 @@
         </is>
       </c>
       <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="n">
-        <v>-66331</v>
-      </c>
-      <c r="S130" t="n">
-        <v>-3251</v>
-      </c>
-      <c r="T130" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9157,15 +7981,6 @@
       <c r="Q131" t="n">
         <v>-0</v>
       </c>
-      <c r="R131" t="n">
-        <v>-722148</v>
-      </c>
-      <c r="S131" t="n">
-        <v>-1380141</v>
-      </c>
-      <c r="T131" t="n">
-        <v>151940992</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9221,15 +8036,6 @@
       <c r="Q132" t="n">
         <v>-0</v>
       </c>
-      <c r="R132" t="n">
-        <v>-87596</v>
-      </c>
-      <c r="S132" t="n">
-        <v>-1292977</v>
-      </c>
-      <c r="T132" t="n">
-        <v>62302800</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9291,15 +8097,6 @@
       <c r="Q133" t="n">
         <v>-15</v>
       </c>
-      <c r="R133" t="n">
-        <v>-34446566</v>
-      </c>
-      <c r="S133" t="n">
-        <v>-12132</v>
-      </c>
-      <c r="T133" t="n">
-        <v>2221090</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9353,15 +8150,6 @@
         </is>
       </c>
       <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="n">
-        <v>-43580</v>
-      </c>
-      <c r="S134" t="n">
-        <v>-7527706</v>
-      </c>
-      <c r="T134" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9423,15 +8211,6 @@
       <c r="Q135" t="n">
         <v>-0</v>
       </c>
-      <c r="R135" t="n">
-        <v>333000</v>
-      </c>
-      <c r="S135" t="n">
-        <v>-4705000</v>
-      </c>
-      <c r="T135" t="n">
-        <v>6968000</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9494,15 +8273,6 @@
       </c>
       <c r="Q136" t="n">
         <v>-15</v>
-      </c>
-      <c r="R136" t="n">
-        <v>-4330360</v>
-      </c>
-      <c r="S136" t="n">
-        <v>0</v>
-      </c>
-      <c r="T136" t="n">
-        <v>18984300</v>
       </c>
     </row>
     <row r="137">
@@ -9555,15 +8325,6 @@
       <c r="Q137" t="n">
         <v>-1</v>
       </c>
-      <c r="R137" t="n">
-        <v>-67870000</v>
-      </c>
-      <c r="S137" t="n">
-        <v>-5602000</v>
-      </c>
-      <c r="T137" t="n">
-        <v>197790000</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9625,15 +8386,6 @@
       <c r="Q138" t="n">
         <v>-0</v>
       </c>
-      <c r="R138" t="n">
-        <v>-88908000</v>
-      </c>
-      <c r="S138" t="n">
-        <v>-101735000</v>
-      </c>
-      <c r="T138" t="n">
-        <v>404240992</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9695,15 +8447,6 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
-      <c r="R139" t="n">
-        <v>11759000</v>
-      </c>
-      <c r="S139" t="n">
-        <v>-4311000</v>
-      </c>
-      <c r="T139" t="n">
-        <v>19380300</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9766,15 +8509,6 @@
       </c>
       <c r="Q140" t="n">
         <v>-2</v>
-      </c>
-      <c r="R140" t="n">
-        <v>-1656847</v>
-      </c>
-      <c r="S140" t="n">
-        <v>-4102986</v>
-      </c>
-      <c r="T140" t="n">
-        <v>1486740</v>
       </c>
     </row>
     <row r="141">
@@ -9837,15 +8571,6 @@
       <c r="Q141" t="n">
         <v>-0</v>
       </c>
-      <c r="R141" t="n">
-        <v>-11279972</v>
-      </c>
-      <c r="S141" t="n">
-        <v>-1209226</v>
-      </c>
-      <c r="T141" t="n">
-        <v>176758000</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9899,15 +8624,6 @@
         </is>
       </c>
       <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="n">
-        <v>-555908</v>
-      </c>
-      <c r="S142" t="n">
-        <v>-119258</v>
-      </c>
-      <c r="T142" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9961,15 +8677,6 @@
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="n">
-        <v>-931046</v>
-      </c>
-      <c r="S143" t="n">
-        <v>-2058</v>
-      </c>
-      <c r="T143" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10031,15 +8738,6 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="R144" t="n">
-        <v>18231000</v>
-      </c>
-      <c r="S144" t="n">
-        <v>-7569000</v>
-      </c>
-      <c r="T144" t="n">
-        <v>29836800</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10093,15 +8791,6 @@
         </is>
       </c>
       <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="n">
-        <v>-10684344</v>
-      </c>
-      <c r="S145" t="n">
-        <v>-95696</v>
-      </c>
-      <c r="T145" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10164,15 +8853,6 @@
       </c>
       <c r="Q146" t="n">
         <v>-1</v>
-      </c>
-      <c r="R146" t="n">
-        <v>-23711000</v>
-      </c>
-      <c r="S146" t="n">
-        <v>-483000</v>
-      </c>
-      <c r="T146" t="n">
-        <v>12156800</v>
       </c>
     </row>
     <row r="147">
@@ -10235,15 +8915,6 @@
       <c r="Q147" t="n">
         <v>-0</v>
       </c>
-      <c r="R147" t="n">
-        <v>-2563000</v>
-      </c>
-      <c r="S147" t="n">
-        <v>0</v>
-      </c>
-      <c r="T147" t="n">
-        <v>21075000</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10305,15 +8976,6 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
-      <c r="R148" t="n">
-        <v>658536000</v>
-      </c>
-      <c r="S148" t="n">
-        <v>-417410000</v>
-      </c>
-      <c r="T148" t="n">
-        <v>1452280064</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10375,15 +9037,6 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="R149" t="n">
-        <v>17221000</v>
-      </c>
-      <c r="S149" t="n">
-        <v>0</v>
-      </c>
-      <c r="T149" t="n">
-        <v>33481200</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10439,15 +9092,6 @@
         </is>
       </c>
       <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="n">
-        <v>39480150</v>
-      </c>
-      <c r="S150" t="n">
-        <v>-19483</v>
-      </c>
-      <c r="T150" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10509,15 +9153,6 @@
       <c r="Q151" t="n">
         <v>-0</v>
       </c>
-      <c r="R151" t="n">
-        <v>-88908000</v>
-      </c>
-      <c r="S151" t="n">
-        <v>-101735000</v>
-      </c>
-      <c r="T151" t="n">
-        <v>8060049920</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10578,15 +9213,6 @@
       </c>
       <c r="Q152" t="n">
         <v>0</v>
-      </c>
-      <c r="R152" t="n">
-        <v>48620000</v>
-      </c>
-      <c r="S152" t="n">
-        <v>0</v>
-      </c>
-      <c r="T152" t="n">
-        <v>71249104</v>
       </c>
     </row>
     <row r="153">
@@ -10641,15 +9267,6 @@
         </is>
       </c>
       <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="n">
-        <v>-828278</v>
-      </c>
-      <c r="S153" t="n">
-        <v>0</v>
-      </c>
-      <c r="T153" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10705,15 +9322,6 @@
       <c r="Q154" t="n">
         <v>-0</v>
       </c>
-      <c r="R154" t="n">
-        <v>-1324527</v>
-      </c>
-      <c r="S154" t="n">
-        <v>-364017</v>
-      </c>
-      <c r="T154" t="n">
-        <v>177494000</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10771,15 +9379,6 @@
       <c r="Q155" t="n">
         <v>-0</v>
       </c>
-      <c r="R155" t="n">
-        <v>-524937</v>
-      </c>
-      <c r="S155" t="n">
-        <v>0</v>
-      </c>
-      <c r="T155" t="n">
-        <v>40117700</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10841,15 +9440,6 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
-      <c r="R156" t="n">
-        <v>17319000000</v>
-      </c>
-      <c r="S156" t="n">
-        <v>-11550000000</v>
-      </c>
-      <c r="T156" t="n">
-        <v>20323100672</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10912,15 +9502,6 @@
       </c>
       <c r="Q157" t="n">
         <v>0</v>
-      </c>
-      <c r="R157" t="n">
-        <v>22888000</v>
-      </c>
-      <c r="S157" t="n">
-        <v>-8932000</v>
-      </c>
-      <c r="T157" t="n">
-        <v>18856700</v>
       </c>
     </row>
     <row r="158">
@@ -10983,15 +9564,6 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
-      <c r="R158" t="n">
-        <v>2745214</v>
-      </c>
-      <c r="S158" t="n">
-        <v>-226846</v>
-      </c>
-      <c r="T158" t="n">
-        <v>11887500</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11055,15 +9627,6 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
-      <c r="R159" t="n">
-        <v>785116</v>
-      </c>
-      <c r="S159" t="n">
-        <v>-590200</v>
-      </c>
-      <c r="T159" t="n">
-        <v>4513400</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11124,15 +9687,6 @@
       </c>
       <c r="Q160" t="n">
         <v>0</v>
-      </c>
-      <c r="R160" t="n">
-        <v>17319000000</v>
-      </c>
-      <c r="S160" t="n">
-        <v>-11550000000</v>
-      </c>
-      <c r="T160" t="n">
-        <v>20323100672</v>
       </c>
     </row>
     <row r="161">
@@ -11185,15 +9739,6 @@
         </is>
       </c>
       <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="n">
-        <v>-2118838</v>
-      </c>
-      <c r="S161" t="n">
-        <v>-490858</v>
-      </c>
-      <c r="T161" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11254,15 +9799,6 @@
       </c>
       <c r="Q162" t="n">
         <v>-0</v>
-      </c>
-      <c r="R162" t="n">
-        <v>-12490392</v>
-      </c>
-      <c r="S162" t="n">
-        <v>-547896</v>
-      </c>
-      <c r="T162" t="n">
-        <v>35228000</v>
       </c>
     </row>
     <row r="163">
@@ -11325,15 +9861,6 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
-      <c r="R163" t="n">
-        <v>41922000</v>
-      </c>
-      <c r="S163" t="n">
-        <v>-7892000</v>
-      </c>
-      <c r="T163" t="n">
-        <v>81419104</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11397,15 +9924,6 @@
       <c r="Q164" t="n">
         <v>-0</v>
       </c>
-      <c r="R164" t="n">
-        <v>-17773366</v>
-      </c>
-      <c r="S164" t="n">
-        <v>-5174396</v>
-      </c>
-      <c r="T164" t="n">
-        <v>71022400</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11468,15 +9986,6 @@
       </c>
       <c r="Q165" t="n">
         <v>1</v>
-      </c>
-      <c r="R165" t="n">
-        <v>9745000</v>
-      </c>
-      <c r="S165" t="n">
-        <v>-455000</v>
-      </c>
-      <c r="T165" t="n">
-        <v>5801000</v>
       </c>
     </row>
     <row r="166">
@@ -11538,15 +10047,6 @@
       </c>
       <c r="Q166" t="n">
         <v>0</v>
-      </c>
-      <c r="R166" t="n">
-        <v>6398177</v>
-      </c>
-      <c r="S166" t="n">
-        <v>-1473212</v>
-      </c>
-      <c r="T166" t="n">
-        <v>29421700</v>
       </c>
     </row>
     <row r="167">
@@ -11603,15 +10103,6 @@
       <c r="Q167" t="n">
         <v>-0</v>
       </c>
-      <c r="R167" t="n">
-        <v>-981953</v>
-      </c>
-      <c r="S167" t="n">
-        <v>-167033</v>
-      </c>
-      <c r="T167" t="n">
-        <v>5183890</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11669,15 +10160,6 @@
       <c r="Q168" t="n">
         <v>-0</v>
       </c>
-      <c r="R168" t="n">
-        <v>-131174</v>
-      </c>
-      <c r="S168" t="n">
-        <v>0</v>
-      </c>
-      <c r="T168" t="n">
-        <v>21319300</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11739,15 +10221,6 @@
       <c r="Q169" t="n">
         <v>-0</v>
       </c>
-      <c r="R169" t="n">
-        <v>-16340000</v>
-      </c>
-      <c r="S169" t="n">
-        <v>-9569000</v>
-      </c>
-      <c r="T169" t="n">
-        <v>30772800</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11810,15 +10283,6 @@
       </c>
       <c r="Q170" t="n">
         <v>0</v>
-      </c>
-      <c r="R170" t="n">
-        <v>347280</v>
-      </c>
-      <c r="S170" t="n">
-        <v>-224260</v>
-      </c>
-      <c r="T170" t="n">
-        <v>1630850</v>
       </c>
     </row>
     <row r="171">
@@ -11877,15 +10341,6 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
-      <c r="R171" t="n">
-        <v>5146000</v>
-      </c>
-      <c r="S171" t="n">
-        <v>-39000</v>
-      </c>
-      <c r="T171" t="n">
-        <v>21016100</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11947,15 +10402,6 @@
       <c r="Q172" t="n">
         <v>-2</v>
       </c>
-      <c r="R172" t="n">
-        <v>367505000</v>
-      </c>
-      <c r="S172" t="n">
-        <v>-9286651000</v>
-      </c>
-      <c r="T172" t="n">
-        <v>3850579968</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12010,15 +10456,6 @@
       </c>
       <c r="Q173" t="n">
         <v>-0</v>
-      </c>
-      <c r="R173" t="n">
-        <v>-504623</v>
-      </c>
-      <c r="S173" t="n">
-        <v>-973154</v>
-      </c>
-      <c r="T173" t="n">
-        <v>83580096</v>
       </c>
     </row>
     <row r="174">
@@ -12079,15 +10516,6 @@
       <c r="Q174" t="n">
         <v>86</v>
       </c>
-      <c r="R174" t="n">
-        <v>6329000</v>
-      </c>
-      <c r="S174" t="n">
-        <v>-6000</v>
-      </c>
-      <c r="T174" t="n">
-        <v>7314000</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12139,15 +10567,6 @@
       <c r="Q175" t="n">
         <v>-0</v>
       </c>
-      <c r="R175" t="n">
-        <v>-90138007</v>
-      </c>
-      <c r="S175" t="n">
-        <v>-2579928</v>
-      </c>
-      <c r="T175" t="n">
-        <v>202132000</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12210,15 +10629,6 @@
       </c>
       <c r="Q176" t="n">
         <v>-0</v>
-      </c>
-      <c r="R176" t="n">
-        <v>-2029176</v>
-      </c>
-      <c r="S176" t="n">
-        <v>-1181484</v>
-      </c>
-      <c r="T176" t="n">
-        <v>6684280</v>
       </c>
     </row>
     <row r="177">
@@ -12280,15 +10690,6 @@
       </c>
       <c r="Q177" t="n">
         <v>1</v>
-      </c>
-      <c r="R177" t="n">
-        <v>3652549</v>
-      </c>
-      <c r="S177" t="n">
-        <v>-26666</v>
-      </c>
-      <c r="T177" t="n">
-        <v>35030300</v>
       </c>
     </row>
     <row r="178">
@@ -12343,15 +10744,6 @@
       <c r="Q178" t="n">
         <v>-15</v>
       </c>
-      <c r="R178" t="n">
-        <v>-13735266</v>
-      </c>
-      <c r="S178" t="n">
-        <v>-706966</v>
-      </c>
-      <c r="T178" t="n">
-        <v>5355640</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12405,15 +10797,6 @@
         </is>
       </c>
       <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="n">
-        <v>-366000</v>
-      </c>
-      <c r="S179" t="n">
-        <v>-48000</v>
-      </c>
-      <c r="T179" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12471,15 +10854,6 @@
       <c r="Q180" t="n">
         <v>1</v>
       </c>
-      <c r="R180" t="n">
-        <v>12881801000</v>
-      </c>
-      <c r="S180" t="n">
-        <v>-3928741000</v>
-      </c>
-      <c r="T180" t="n">
-        <v>1342200064</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12543,15 +10917,6 @@
       <c r="Q181" t="n">
         <v>1</v>
       </c>
-      <c r="R181" t="n">
-        <v>157160000</v>
-      </c>
-      <c r="S181" t="n">
-        <v>-13303000</v>
-      </c>
-      <c r="T181" t="n">
-        <v>35752700</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12614,15 +10979,6 @@
       </c>
       <c r="Q182" t="n">
         <v>-0</v>
-      </c>
-      <c r="R182" t="n">
-        <v>-2567000</v>
-      </c>
-      <c r="S182" t="n">
-        <v>-291000</v>
-      </c>
-      <c r="T182" t="n">
-        <v>141200000</v>
       </c>
     </row>
     <row r="183">
@@ -12679,15 +11035,6 @@
       <c r="Q183" t="n">
         <v>-1</v>
       </c>
-      <c r="R183" t="n">
-        <v>-7462000</v>
-      </c>
-      <c r="S183" t="n">
-        <v>-6501000</v>
-      </c>
-      <c r="T183" t="n">
-        <v>54581500</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12748,15 +11095,6 @@
       </c>
       <c r="Q184" t="n">
         <v>-0</v>
-      </c>
-      <c r="R184" t="n">
-        <v>-1039880</v>
-      </c>
-      <c r="S184" t="n">
-        <v>-243783</v>
-      </c>
-      <c r="T184" t="n">
-        <v>9154950</v>
       </c>
     </row>
     <row r="185">
@@ -12819,15 +11157,6 @@
       <c r="Q185" t="n">
         <v>-0</v>
       </c>
-      <c r="R185" t="n">
-        <v>-1287783</v>
-      </c>
-      <c r="S185" t="n">
-        <v>-83590</v>
-      </c>
-      <c r="T185" t="n">
-        <v>100290000</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12889,15 +11218,6 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
-      <c r="R186" t="n">
-        <v>11474000</v>
-      </c>
-      <c r="S186" t="n">
-        <v>-1729000</v>
-      </c>
-      <c r="T186" t="n">
-        <v>24491200</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12958,15 +11278,6 @@
       </c>
       <c r="Q187" t="n">
         <v>1</v>
-      </c>
-      <c r="R187" t="n">
-        <v>42713300</v>
-      </c>
-      <c r="S187" t="n">
-        <v>-4998700</v>
-      </c>
-      <c r="T187" t="n">
-        <v>46610200</v>
       </c>
     </row>
     <row r="188">
@@ -13015,15 +11326,6 @@
         </is>
       </c>
       <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="n">
-        <v>922493</v>
-      </c>
-      <c r="S188" t="n">
-        <v>-1470377</v>
-      </c>
-      <c r="T188" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13085,15 +11387,6 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
-      <c r="R189" t="n">
-        <v>3820000</v>
-      </c>
-      <c r="S189" t="n">
-        <v>0</v>
-      </c>
-      <c r="T189" t="n">
-        <v>78484096</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13154,15 +11447,6 @@
       </c>
       <c r="Q190" t="n">
         <v>-0</v>
-      </c>
-      <c r="R190" t="n">
-        <v>-372980</v>
-      </c>
-      <c r="S190" t="n">
-        <v>0</v>
-      </c>
-      <c r="T190" t="n">
-        <v>811529984</v>
       </c>
     </row>
     <row r="191">
@@ -13215,15 +11499,6 @@
         </is>
       </c>
       <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="n">
-        <v>0</v>
-      </c>
-      <c r="S191" t="n">
-        <v>0</v>
-      </c>
-      <c r="T191" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13279,15 +11554,6 @@
       <c r="Q192" t="n">
         <v>-1</v>
       </c>
-      <c r="R192" t="n">
-        <v>-204737</v>
-      </c>
-      <c r="S192" t="n">
-        <v>-51048</v>
-      </c>
-      <c r="T192" t="n">
-        <v>24629800</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13346,15 +11612,6 @@
       </c>
       <c r="Q193" t="n">
         <v>-0</v>
-      </c>
-      <c r="R193" t="n">
-        <v>-558706</v>
-      </c>
-      <c r="S193" t="n">
-        <v>-880309</v>
-      </c>
-      <c r="T193" t="n">
-        <v>255635008</v>
       </c>
     </row>
     <row r="194">
@@ -13405,15 +11662,6 @@
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="n">
-        <v>0</v>
-      </c>
-      <c r="S194" t="n">
-        <v>0</v>
-      </c>
-      <c r="T194" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13474,15 +11722,6 @@
       </c>
       <c r="Q195" t="n">
         <v>-1</v>
-      </c>
-      <c r="R195" t="n">
-        <v>145893000</v>
-      </c>
-      <c r="S195" t="n">
-        <v>-432780000</v>
-      </c>
-      <c r="T195" t="n">
-        <v>161867008</v>
       </c>
     </row>
     <row r="196">
@@ -13545,15 +11784,6 @@
       <c r="Q196" t="n">
         <v>-8</v>
       </c>
-      <c r="R196" t="n">
-        <v>-1968000</v>
-      </c>
-      <c r="S196" t="n">
-        <v>-1556000</v>
-      </c>
-      <c r="T196" t="n">
-        <v>3032840</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13615,15 +11845,6 @@
       <c r="Q197" t="n">
         <v>-0</v>
       </c>
-      <c r="R197" t="n">
-        <v>-75726</v>
-      </c>
-      <c r="S197" t="n">
-        <v>-27771</v>
-      </c>
-      <c r="T197" t="n">
-        <v>26576900</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13684,15 +11905,6 @@
       </c>
       <c r="Q198" t="n">
         <v>0</v>
-      </c>
-      <c r="R198" t="n">
-        <v>1615148</v>
-      </c>
-      <c r="S198" t="n">
-        <v>-1524880</v>
-      </c>
-      <c r="T198" t="n">
-        <v>5985490</v>
       </c>
     </row>
     <row r="199">
@@ -13745,15 +11957,6 @@
       <c r="Q199" t="n">
         <v>-0</v>
       </c>
-      <c r="R199" t="n">
-        <v>-83549</v>
-      </c>
-      <c r="S199" t="n">
-        <v>0</v>
-      </c>
-      <c r="T199" t="n">
-        <v>16092300</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -13810,15 +12013,6 @@
       </c>
       <c r="Q200" t="n">
         <v>0</v>
-      </c>
-      <c r="R200" t="n">
-        <v>40178000</v>
-      </c>
-      <c r="S200" t="n">
-        <v>-1030000</v>
-      </c>
-      <c r="T200" t="n">
-        <v>42952700</v>
       </c>
     </row>
     <row r="201">
@@ -13879,15 +12073,6 @@
       <c r="Q201" t="n">
         <v>-0</v>
       </c>
-      <c r="R201" t="n">
-        <v>-28714</v>
-      </c>
-      <c r="S201" t="n">
-        <v>-149796</v>
-      </c>
-      <c r="T201" t="n">
-        <v>9648510</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -13949,15 +12134,6 @@
       <c r="Q202" t="n">
         <v>-1</v>
       </c>
-      <c r="R202" t="n">
-        <v>-11551000</v>
-      </c>
-      <c r="S202" t="n">
-        <v>-80000</v>
-      </c>
-      <c r="T202" t="n">
-        <v>252792992</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14014,15 +12190,6 @@
       </c>
       <c r="Q203" t="n">
         <v>4</v>
-      </c>
-      <c r="R203" t="n">
-        <v>1216146000</v>
-      </c>
-      <c r="S203" t="n">
-        <v>-8528000</v>
-      </c>
-      <c r="T203" t="n">
-        <v>1298200064</v>
       </c>
     </row>
     <row r="204">
@@ -14083,15 +12250,6 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
-      <c r="R204" t="n">
-        <v>129391000</v>
-      </c>
-      <c r="S204" t="n">
-        <v>-15407000</v>
-      </c>
-      <c r="T204" t="n">
-        <v>548278016</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -14141,15 +12299,6 @@
       <c r="Q205" t="n">
         <v>-8</v>
       </c>
-      <c r="R205" t="n">
-        <v>-1195503</v>
-      </c>
-      <c r="S205" t="n">
-        <v>-1637134</v>
-      </c>
-      <c r="T205" t="n">
-        <v>3202920</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -14197,15 +12346,6 @@
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr"/>
       <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="n">
-        <v>95946</v>
-      </c>
-      <c r="S206" t="n">
-        <v>-7499</v>
-      </c>
-      <c r="T206" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -14267,15 +12407,6 @@
       <c r="Q207" t="n">
         <v>-10</v>
       </c>
-      <c r="R207" t="n">
-        <v>-3573654</v>
-      </c>
-      <c r="S207" t="n">
-        <v>-3293960</v>
-      </c>
-      <c r="T207" t="n">
-        <v>90642400</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -14336,15 +12467,6 @@
       </c>
       <c r="Q208" t="n">
         <v>0</v>
-      </c>
-      <c r="R208" t="n">
-        <v>262157</v>
-      </c>
-      <c r="S208" t="n">
-        <v>0</v>
-      </c>
-      <c r="T208" t="n">
-        <v>4946500</v>
       </c>
     </row>
     <row r="209">
@@ -14399,15 +12521,6 @@
         </is>
       </c>
       <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="n">
-        <v>1728248</v>
-      </c>
-      <c r="S209" t="n">
-        <v>-1122642</v>
-      </c>
-      <c r="T209" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -14464,15 +12577,6 @@
       </c>
       <c r="Q210" t="n">
         <v>-0</v>
-      </c>
-      <c r="R210" t="n">
-        <v>-27500000</v>
-      </c>
-      <c r="S210" t="n">
-        <v>0</v>
-      </c>
-      <c r="T210" t="n">
-        <v>1059139968</v>
       </c>
     </row>
     <row r="211">
@@ -14527,15 +12631,6 @@
         </is>
       </c>
       <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="n">
-        <v>5654665</v>
-      </c>
-      <c r="S211" t="n">
-        <v>174433</v>
-      </c>
-      <c r="T211" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -14597,15 +12692,6 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
-      <c r="R212" t="n">
-        <v>353498</v>
-      </c>
-      <c r="S212" t="n">
-        <v>0</v>
-      </c>
-      <c r="T212" t="n">
-        <v>1676600</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -14663,15 +12749,6 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
-      <c r="R213" t="n">
-        <v>1625943</v>
-      </c>
-      <c r="S213" t="n">
-        <v>-159379</v>
-      </c>
-      <c r="T213" t="n">
-        <v>24773200</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -14733,15 +12810,6 @@
       <c r="Q214" t="n">
         <v>-12</v>
       </c>
-      <c r="R214" t="n">
-        <v>-2574700482</v>
-      </c>
-      <c r="S214" t="n">
-        <v>-718757000</v>
-      </c>
-      <c r="T214" t="n">
-        <v>392219008</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -14797,15 +12865,6 @@
         </is>
       </c>
       <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="n">
-        <v>-2183000</v>
-      </c>
-      <c r="S215" t="n">
-        <v>0</v>
-      </c>
-      <c r="T215" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -14867,15 +12926,6 @@
       <c r="Q216" t="n">
         <v>-0</v>
       </c>
-      <c r="R216" t="n">
-        <v>-8093000</v>
-      </c>
-      <c r="S216" t="n">
-        <v>0</v>
-      </c>
-      <c r="T216" t="n">
-        <v>142435008</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -14938,15 +12988,6 @@
       </c>
       <c r="Q217" t="n">
         <v>-0</v>
-      </c>
-      <c r="R217" t="n">
-        <v>-6561000</v>
-      </c>
-      <c r="S217" t="n">
-        <v>505000</v>
-      </c>
-      <c r="T217" t="n">
-        <v>18301500</v>
       </c>
     </row>
     <row r="218">
@@ -15009,15 +13050,6 @@
       <c r="Q218" t="n">
         <v>3</v>
       </c>
-      <c r="R218" t="n">
-        <v>43072972</v>
-      </c>
-      <c r="S218" t="n">
-        <v>-2170</v>
-      </c>
-      <c r="T218" t="n">
-        <v>104439000</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -15079,15 +13111,6 @@
       <c r="Q219" t="n">
         <v>2</v>
       </c>
-      <c r="R219" t="n">
-        <v>447587</v>
-      </c>
-      <c r="S219" t="n">
-        <v>-34440</v>
-      </c>
-      <c r="T219" t="n">
-        <v>8584140</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -15147,15 +13170,6 @@
       <c r="Q220" t="n">
         <v>-0</v>
       </c>
-      <c r="R220" t="n">
-        <v>-3013020</v>
-      </c>
-      <c r="S220" t="n">
-        <v>0</v>
-      </c>
-      <c r="T220" t="n">
-        <v>633507968</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -15212,15 +13226,6 @@
       </c>
       <c r="Q221" t="n">
         <v>-0</v>
-      </c>
-      <c r="R221" t="n">
-        <v>55789000</v>
-      </c>
-      <c r="S221" t="n">
-        <v>-106344000</v>
-      </c>
-      <c r="T221" t="n">
-        <v>183980992</v>
       </c>
     </row>
     <row r="222">
@@ -15279,15 +13284,6 @@
       <c r="Q222" t="n">
         <v>-1</v>
       </c>
-      <c r="R222" t="n">
-        <v>-2428000</v>
-      </c>
-      <c r="S222" t="n">
-        <v>-32000</v>
-      </c>
-      <c r="T222" t="n">
-        <v>4070530</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -15350,15 +13346,6 @@
       </c>
       <c r="Q223" t="n">
         <v>0</v>
-      </c>
-      <c r="R223" t="n">
-        <v>6545789</v>
-      </c>
-      <c r="S223" t="n">
-        <v>-4254378</v>
-      </c>
-      <c r="T223" t="n">
-        <v>13621400</v>
       </c>
     </row>
     <row r="224">
@@ -15421,15 +13408,6 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
-      <c r="R224" t="n">
-        <v>58709000</v>
-      </c>
-      <c r="S224" t="n">
-        <v>-26261000</v>
-      </c>
-      <c r="T224" t="n">
-        <v>57699000</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -15485,15 +13463,6 @@
       <c r="Q225" t="n">
         <v>-0</v>
       </c>
-      <c r="R225" t="n">
-        <v>-6909333</v>
-      </c>
-      <c r="S225" t="n">
-        <v>-384672</v>
-      </c>
-      <c r="T225" t="n">
-        <v>30196800</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -15555,15 +13524,6 @@
       <c r="Q226" t="n">
         <v>-0</v>
       </c>
-      <c r="R226" t="n">
-        <v>-82400000</v>
-      </c>
-      <c r="S226" t="n">
-        <v>-18500000</v>
-      </c>
-      <c r="T226" t="n">
-        <v>4203739904</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -15621,15 +13581,6 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
-      <c r="R227" t="n">
-        <v>28610000</v>
-      </c>
-      <c r="S227" t="n">
-        <v>-1626000</v>
-      </c>
-      <c r="T227" t="n">
-        <v>32635200</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -15692,15 +13643,6 @@
       </c>
       <c r="Q228" t="n">
         <v>0</v>
-      </c>
-      <c r="R228" t="n">
-        <v>46782000</v>
-      </c>
-      <c r="S228" t="n">
-        <v>-13569000</v>
-      </c>
-      <c r="T228" t="n">
-        <v>41468100</v>
       </c>
     </row>
     <row r="229">
@@ -15763,15 +13705,6 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
-      <c r="R229" t="n">
-        <v>70061000</v>
-      </c>
-      <c r="S229" t="n">
-        <v>-2918000</v>
-      </c>
-      <c r="T229" t="n">
-        <v>181790000</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -15831,15 +13764,6 @@
       <c r="Q230" t="n">
         <v>1</v>
       </c>
-      <c r="R230" t="n">
-        <v>2433734000</v>
-      </c>
-      <c r="S230" t="n">
-        <v>-1158195000</v>
-      </c>
-      <c r="T230" t="n">
-        <v>502220992</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -15897,15 +13821,6 @@
       <c r="Q231" t="n">
         <v>1</v>
       </c>
-      <c r="R231" t="n">
-        <v>26035000</v>
-      </c>
-      <c r="S231" t="n">
-        <v>-1393000</v>
-      </c>
-      <c r="T231" t="n">
-        <v>109829000</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -15961,15 +13876,6 @@
         </is>
       </c>
       <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="n">
-        <v>-4715080</v>
-      </c>
-      <c r="S232" t="n">
-        <v>-287247</v>
-      </c>
-      <c r="T232" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -16030,15 +13936,6 @@
       </c>
       <c r="Q233" t="n">
         <v>1</v>
-      </c>
-      <c r="R233" t="n">
-        <v>2924205</v>
-      </c>
-      <c r="S233" t="n">
-        <v>-65217</v>
-      </c>
-      <c r="T233" t="n">
-        <v>7326550</v>
       </c>
     </row>
     <row r="234">
@@ -16093,15 +13990,6 @@
         </is>
       </c>
       <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="n">
-        <v>0</v>
-      </c>
-      <c r="S234" t="n">
-        <v>0</v>
-      </c>
-      <c r="T234" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -16163,15 +14051,6 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
-      <c r="R235" t="n">
-        <v>4977222</v>
-      </c>
-      <c r="S235" t="n">
-        <v>0</v>
-      </c>
-      <c r="T235" t="n">
-        <v>11608600</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16234,15 +14113,6 @@
       </c>
       <c r="Q236" t="n">
         <v>0</v>
-      </c>
-      <c r="R236" t="n">
-        <v>0</v>
-      </c>
-      <c r="S236" t="n">
-        <v>0</v>
-      </c>
-      <c r="T236" t="n">
-        <v>2944710</v>
       </c>
     </row>
     <row r="237">
@@ -16293,15 +14163,6 @@
       <c r="Q237" t="n">
         <v>1</v>
       </c>
-      <c r="R237" t="n">
-        <v>1791754</v>
-      </c>
-      <c r="S237" t="n">
-        <v>0</v>
-      </c>
-      <c r="T237" t="n">
-        <v>80870896</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -16362,15 +14223,6 @@
       </c>
       <c r="Q238" t="n">
         <v>-0</v>
-      </c>
-      <c r="R238" t="n">
-        <v>-802920</v>
-      </c>
-      <c r="S238" t="n">
-        <v>-753095</v>
-      </c>
-      <c r="T238" t="n">
-        <v>82265104</v>
       </c>
     </row>
     <row r="239">
@@ -16433,15 +14285,6 @@
       <c r="Q239" t="n">
         <v>-1</v>
       </c>
-      <c r="R239" t="n">
-        <v>-7293000</v>
-      </c>
-      <c r="S239" t="n">
-        <v>-38000</v>
-      </c>
-      <c r="T239" t="n">
-        <v>10982100</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -16505,15 +14348,6 @@
       <c r="Q240" t="n">
         <v>-0</v>
       </c>
-      <c r="R240" t="n">
-        <v>-1027000</v>
-      </c>
-      <c r="S240" t="n">
-        <v>-237000</v>
-      </c>
-      <c r="T240" t="n">
-        <v>30263800</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -16574,15 +14408,6 @@
       </c>
       <c r="Q241" t="n">
         <v>-2</v>
-      </c>
-      <c r="R241" t="n">
-        <v>-11841236</v>
-      </c>
-      <c r="S241" t="n">
-        <v>-114838</v>
-      </c>
-      <c r="T241" t="n">
-        <v>176852000</v>
       </c>
     </row>
     <row r="242">
@@ -16635,15 +14460,6 @@
       <c r="Q242" t="n">
         <v>-0</v>
       </c>
-      <c r="R242" t="n">
-        <v>-439434</v>
-      </c>
-      <c r="S242" t="n">
-        <v>0</v>
-      </c>
-      <c r="T242" t="n">
-        <v>48242600</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -16702,15 +14518,6 @@
       </c>
       <c r="Q243" t="n">
         <v>-1</v>
-      </c>
-      <c r="R243" t="n">
-        <v>-4214116</v>
-      </c>
-      <c r="S243" t="n">
-        <v>-61209</v>
-      </c>
-      <c r="T243" t="n">
-        <v>112417000</v>
       </c>
     </row>
     <row r="244">
@@ -16765,15 +14572,6 @@
       <c r="Q244" t="n">
         <v>-0</v>
       </c>
-      <c r="R244" t="n">
-        <v>-1686927</v>
-      </c>
-      <c r="S244" t="n">
-        <v>0</v>
-      </c>
-      <c r="T244" t="n">
-        <v>188791008</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -16829,15 +14627,6 @@
         </is>
       </c>
       <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="n">
-        <v>-387000</v>
-      </c>
-      <c r="S245" t="n">
-        <v>-75000</v>
-      </c>
-      <c r="T245" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -16900,15 +14689,6 @@
       </c>
       <c r="Q246" t="n">
         <v>-0</v>
-      </c>
-      <c r="R246" t="n">
-        <v>2249000</v>
-      </c>
-      <c r="S246" t="n">
-        <v>-4053000</v>
-      </c>
-      <c r="T246" t="n">
-        <v>3287650</v>
       </c>
     </row>
     <row r="247">
@@ -16961,15 +14741,6 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
-      <c r="R247" t="n">
-        <v>58000</v>
-      </c>
-      <c r="S247" t="n">
-        <v>0</v>
-      </c>
-      <c r="T247" t="n">
-        <v>6902590</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -17030,15 +14801,6 @@
       </c>
       <c r="Q248" t="n">
         <v>4</v>
-      </c>
-      <c r="R248" t="n">
-        <v>804643</v>
-      </c>
-      <c r="S248" t="n">
-        <v>0</v>
-      </c>
-      <c r="T248" t="n">
-        <v>601044</v>
       </c>
     </row>
     <row r="249">
@@ -17091,15 +14853,6 @@
       <c r="Q249" t="n">
         <v>-18</v>
       </c>
-      <c r="R249" t="n">
-        <v>-572751</v>
-      </c>
-      <c r="S249" t="n">
-        <v>0</v>
-      </c>
-      <c r="T249" t="n">
-        <v>774992</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -17153,15 +14906,6 @@
       <c r="Q250" t="n">
         <v>-0</v>
       </c>
-      <c r="R250" t="n">
-        <v>-278358</v>
-      </c>
-      <c r="S250" t="n">
-        <v>-584080</v>
-      </c>
-      <c r="T250" t="n">
-        <v>14839800</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -17222,15 +14966,6 @@
       </c>
       <c r="Q251" t="n">
         <v>-0</v>
-      </c>
-      <c r="R251" t="n">
-        <v>-768517</v>
-      </c>
-      <c r="S251" t="n">
-        <v>0</v>
-      </c>
-      <c r="T251" t="n">
-        <v>103817000</v>
       </c>
     </row>
     <row r="252">
@@ -17279,15 +15014,6 @@
       <c r="O252" t="inlineStr"/>
       <c r="P252" t="inlineStr"/>
       <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="n">
-        <v>-3649308</v>
-      </c>
-      <c r="S252" t="n">
-        <v>-150793</v>
-      </c>
-      <c r="T252" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -17345,15 +15071,6 @@
       <c r="Q253" t="n">
         <v>-0</v>
       </c>
-      <c r="R253" t="n">
-        <v>-661000000</v>
-      </c>
-      <c r="S253" t="n">
-        <v>-22000000</v>
-      </c>
-      <c r="T253" t="n">
-        <v>2714400000</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -17411,15 +15128,6 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
-      <c r="R254" t="n">
-        <v>85446000</v>
-      </c>
-      <c r="S254" t="n">
-        <v>-33573000</v>
-      </c>
-      <c r="T254" t="n">
-        <v>87921800</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -17482,15 +15190,6 @@
       </c>
       <c r="Q255" t="n">
         <v>-1</v>
-      </c>
-      <c r="R255" t="n">
-        <v>16375000</v>
-      </c>
-      <c r="S255" t="n">
-        <v>-58148000</v>
-      </c>
-      <c r="T255" t="n">
-        <v>13819700</v>
       </c>
     </row>
     <row r="256">
@@ -17551,15 +15250,6 @@
       <c r="Q256" t="n">
         <v>7</v>
       </c>
-      <c r="R256" t="n">
-        <v>4920807</v>
-      </c>
-      <c r="S256" t="n">
-        <v>0</v>
-      </c>
-      <c r="T256" t="n">
-        <v>119384000</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17621,15 +15311,6 @@
       <c r="Q257" t="n">
         <v>-2</v>
       </c>
-      <c r="R257" t="n">
-        <v>-5432730</v>
-      </c>
-      <c r="S257" t="n">
-        <v>-3524504</v>
-      </c>
-      <c r="T257" t="n">
-        <v>28786700</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -17687,15 +15368,6 @@
       <c r="Q258" t="n">
         <v>-0</v>
       </c>
-      <c r="R258" t="n">
-        <v>-8190</v>
-      </c>
-      <c r="S258" t="n">
-        <v>-16877</v>
-      </c>
-      <c r="T258" t="n">
-        <v>23933000</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -17757,15 +15429,6 @@
       <c r="Q259" t="n">
         <v>2</v>
       </c>
-      <c r="R259" t="n">
-        <v>3415674000</v>
-      </c>
-      <c r="S259" t="n">
-        <v>-1440165000</v>
-      </c>
-      <c r="T259" t="n">
-        <v>289959008</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -17828,15 +15491,6 @@
       </c>
       <c r="Q260" t="n">
         <v>0</v>
-      </c>
-      <c r="R260" t="n">
-        <v>39293000</v>
-      </c>
-      <c r="S260" t="n">
-        <v>-20386000</v>
-      </c>
-      <c r="T260" t="n">
-        <v>30612600</v>
       </c>
     </row>
     <row r="261">
@@ -17888,15 +15542,6 @@
       <c r="P261" t="inlineStr"/>
       <c r="Q261" t="n">
         <v>-0</v>
-      </c>
-      <c r="R261" t="n">
-        <v>-593587</v>
-      </c>
-      <c r="S261" t="n">
-        <v>-160066</v>
-      </c>
-      <c r="T261" t="n">
-        <v>20789700</v>
       </c>
     </row>
     <row r="262">
@@ -17945,15 +15590,6 @@
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr"/>
       <c r="Q262" t="inlineStr"/>
-      <c r="R262" t="n">
-        <v>-547879</v>
-      </c>
-      <c r="S262" t="n">
-        <v>0</v>
-      </c>
-      <c r="T262" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -18014,15 +15650,6 @@
       </c>
       <c r="Q263" t="n">
         <v>0</v>
-      </c>
-      <c r="R263" t="n">
-        <v>136832000</v>
-      </c>
-      <c r="S263" t="n">
-        <v>-34910000</v>
-      </c>
-      <c r="T263" t="n">
-        <v>162444992</v>
       </c>
     </row>
     <row r="264">
@@ -18077,15 +15704,6 @@
       <c r="Q264" t="n">
         <v>14</v>
       </c>
-      <c r="R264" t="n">
-        <v>2605000</v>
-      </c>
-      <c r="S264" t="n">
-        <v>-384000</v>
-      </c>
-      <c r="T264" t="n">
-        <v>4079740</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -18139,15 +15757,6 @@
       <c r="Q265" t="n">
         <v>-0</v>
       </c>
-      <c r="R265" t="n">
-        <v>-1435000</v>
-      </c>
-      <c r="S265" t="n">
-        <v>0</v>
-      </c>
-      <c r="T265" t="n">
-        <v>213926000</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -18203,15 +15812,6 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
-      <c r="R266" t="n">
-        <v>0</v>
-      </c>
-      <c r="S266" t="n">
-        <v>0</v>
-      </c>
-      <c r="T266" t="n">
-        <v>17605000</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -18272,15 +15872,6 @@
       </c>
       <c r="Q267" t="n">
         <v>-138</v>
-      </c>
-      <c r="R267" t="n">
-        <v>30370000</v>
-      </c>
-      <c r="S267" t="n">
-        <v>-63615000</v>
-      </c>
-      <c r="T267" t="n">
-        <v>28299400</v>
       </c>
     </row>
     <row r="268">
@@ -18329,15 +15920,6 @@
       <c r="Q268" t="n">
         <v>-0</v>
       </c>
-      <c r="R268" t="n">
-        <v>-2128494</v>
-      </c>
-      <c r="S268" t="n">
-        <v>-287707</v>
-      </c>
-      <c r="T268" t="n">
-        <v>167724000</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -18395,15 +15977,6 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
-      <c r="R269" t="n">
-        <v>1011000000</v>
-      </c>
-      <c r="S269" t="n">
-        <v>-21000000</v>
-      </c>
-      <c r="T269" t="n">
-        <v>886080000</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -18462,15 +16035,6 @@
       </c>
       <c r="Q270" t="n">
         <v>-37</v>
-      </c>
-      <c r="R270" t="n">
-        <v>-1477341</v>
-      </c>
-      <c r="S270" t="n">
-        <v>15119</v>
-      </c>
-      <c r="T270" t="n">
-        <v>7107330</v>
       </c>
     </row>
     <row r="271">
@@ -18525,15 +16089,6 @@
       <c r="Q271" t="n">
         <v>2</v>
       </c>
-      <c r="R271" t="n">
-        <v>2058082</v>
-      </c>
-      <c r="S271" t="n">
-        <v>-2709</v>
-      </c>
-      <c r="T271" t="n">
-        <v>27717600</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -18594,15 +16149,6 @@
       </c>
       <c r="Q272" t="n">
         <v>0</v>
-      </c>
-      <c r="R272" t="n">
-        <v>45258</v>
-      </c>
-      <c r="S272" t="n">
-        <v>0</v>
-      </c>
-      <c r="T272" t="n">
-        <v>17951100</v>
       </c>
     </row>
     <row r="273">
@@ -18657,15 +16203,6 @@
       <c r="Q273" t="n">
         <v>-1</v>
       </c>
-      <c r="R273" t="n">
-        <v>-198649</v>
-      </c>
-      <c r="S273" t="n">
-        <v>0</v>
-      </c>
-      <c r="T273" t="n">
-        <v>42600000</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -18719,15 +16256,6 @@
       <c r="Q274" t="n">
         <v>-2</v>
       </c>
-      <c r="R274" t="n">
-        <v>-1048047</v>
-      </c>
-      <c r="S274" t="n">
-        <v>0</v>
-      </c>
-      <c r="T274" t="n">
-        <v>4856590</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -18781,15 +16309,6 @@
       <c r="Q275" t="n">
         <v>-12</v>
       </c>
-      <c r="R275" t="n">
-        <v>-1630083</v>
-      </c>
-      <c r="S275" t="n">
-        <v>-473624</v>
-      </c>
-      <c r="T275" t="n">
-        <v>12012200</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -18850,15 +16369,6 @@
       </c>
       <c r="Q276" t="n">
         <v>-1</v>
-      </c>
-      <c r="R276" t="n">
-        <v>-14873238</v>
-      </c>
-      <c r="S276" t="n">
-        <v>-9479371</v>
-      </c>
-      <c r="T276" t="n">
-        <v>1245830016</v>
       </c>
     </row>
     <row r="277">
@@ -18913,15 +16423,6 @@
         </is>
       </c>
       <c r="Q277" t="inlineStr"/>
-      <c r="R277" t="n">
-        <v>1620000</v>
-      </c>
-      <c r="S277" t="n">
-        <v>-796000</v>
-      </c>
-      <c r="T277" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -18977,15 +16478,6 @@
       <c r="Q278" t="n">
         <v>-1</v>
       </c>
-      <c r="R278" t="n">
-        <v>-3801155</v>
-      </c>
-      <c r="S278" t="n">
-        <v>-604261</v>
-      </c>
-      <c r="T278" t="n">
-        <v>27297700</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -19039,15 +16531,6 @@
       <c r="Q279" t="n">
         <v>-11029</v>
       </c>
-      <c r="R279" t="n">
-        <v>-661686</v>
-      </c>
-      <c r="S279" t="n">
-        <v>0</v>
-      </c>
-      <c r="T279" t="n">
-        <v>4444</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -19108,15 +16591,6 @@
       </c>
       <c r="Q280" t="n">
         <v>6</v>
-      </c>
-      <c r="R280" t="n">
-        <v>157406000</v>
-      </c>
-      <c r="S280" t="n">
-        <v>0</v>
-      </c>
-      <c r="T280" t="n">
-        <v>196459008</v>
       </c>
     </row>
     <row r="281">
@@ -19175,15 +16649,6 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
-      <c r="R281" t="n">
-        <v>204834</v>
-      </c>
-      <c r="S281" t="n">
-        <v>0</v>
-      </c>
-      <c r="T281" t="n">
-        <v>139950000</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -19237,15 +16702,6 @@
         </is>
       </c>
       <c r="Q282" t="inlineStr"/>
-      <c r="R282" t="n">
-        <v>-810122</v>
-      </c>
-      <c r="S282" t="n">
-        <v>-269740</v>
-      </c>
-      <c r="T282" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -19299,15 +16755,6 @@
         </is>
       </c>
       <c r="Q283" t="inlineStr"/>
-      <c r="R283" t="n">
-        <v>-803142</v>
-      </c>
-      <c r="S283" t="n">
-        <v>3303</v>
-      </c>
-      <c r="T283" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -19368,15 +16815,6 @@
       </c>
       <c r="Q284" t="n">
         <v>-2</v>
-      </c>
-      <c r="R284" t="n">
-        <v>-4311960</v>
-      </c>
-      <c r="S284" t="n">
-        <v>-749121</v>
-      </c>
-      <c r="T284" t="n">
-        <v>125170000</v>
       </c>
     </row>
     <row r="285">
@@ -19439,15 +16877,6 @@
       <c r="Q285" t="n">
         <v>-20</v>
       </c>
-      <c r="R285" t="n">
-        <v>-13285125</v>
-      </c>
-      <c r="S285" t="n">
-        <v>-8421745</v>
-      </c>
-      <c r="T285" t="n">
-        <v>109424000</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -19503,15 +16932,6 @@
         </is>
       </c>
       <c r="Q286" t="inlineStr"/>
-      <c r="R286" t="n">
-        <v>4747367</v>
-      </c>
-      <c r="S286" t="n">
-        <v>-1346446</v>
-      </c>
-      <c r="T286" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -19559,15 +16979,6 @@
       <c r="Q287" t="n">
         <v>-1</v>
       </c>
-      <c r="R287" t="n">
-        <v>-1623000</v>
-      </c>
-      <c r="S287" t="n">
-        <v>-3679000</v>
-      </c>
-      <c r="T287" t="n">
-        <v>70090896</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -19627,15 +17038,6 @@
       <c r="Q288" t="n">
         <v>-10</v>
       </c>
-      <c r="R288" t="n">
-        <v>-7021000</v>
-      </c>
-      <c r="S288" t="n">
-        <v>-2171000</v>
-      </c>
-      <c r="T288" t="n">
-        <v>7485210</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -19693,15 +17095,6 @@
       <c r="Q289" t="n">
         <v>-1</v>
       </c>
-      <c r="R289" t="n">
-        <v>-4654506</v>
-      </c>
-      <c r="S289" t="n">
-        <v>-1223040</v>
-      </c>
-      <c r="T289" t="n">
-        <v>68674600</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -19763,15 +17156,6 @@
       <c r="Q290" t="n">
         <v>-0</v>
       </c>
-      <c r="R290" t="n">
-        <v>-2471911</v>
-      </c>
-      <c r="S290" t="n">
-        <v>-66979</v>
-      </c>
-      <c r="T290" t="n">
-        <v>203612000</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -19832,15 +17216,6 @@
       </c>
       <c r="Q291" t="n">
         <v>-6</v>
-      </c>
-      <c r="R291" t="n">
-        <v>-2376940</v>
-      </c>
-      <c r="S291" t="n">
-        <v>0</v>
-      </c>
-      <c r="T291" t="n">
-        <v>11466100</v>
       </c>
     </row>
     <row r="292">
@@ -19895,15 +17270,6 @@
       <c r="Q292" t="n">
         <v>-2</v>
       </c>
-      <c r="R292" t="n">
-        <v>-948617</v>
-      </c>
-      <c r="S292" t="n">
-        <v>0</v>
-      </c>
-      <c r="T292" t="n">
-        <v>31048400</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -19961,15 +17327,6 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
-      <c r="R293" t="n">
-        <v>0</v>
-      </c>
-      <c r="S293" t="n">
-        <v>0</v>
-      </c>
-      <c r="T293" t="n">
-        <v>8252000</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -20019,15 +17376,6 @@
       <c r="O294" t="inlineStr"/>
       <c r="P294" t="inlineStr"/>
       <c r="Q294" t="inlineStr"/>
-      <c r="R294" t="n">
-        <v>-576504</v>
-      </c>
-      <c r="S294" t="n">
-        <v>0</v>
-      </c>
-      <c r="T294" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -20085,15 +17433,6 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
-      <c r="R295" t="n">
-        <v>10969380</v>
-      </c>
-      <c r="S295" t="n">
-        <v>-2638281</v>
-      </c>
-      <c r="T295" t="n">
-        <v>69076304</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -20153,15 +17492,6 @@
       <c r="Q296" t="n">
         <v>-2</v>
       </c>
-      <c r="R296" t="n">
-        <v>-1621590</v>
-      </c>
-      <c r="S296" t="n">
-        <v>-51885</v>
-      </c>
-      <c r="T296" t="n">
-        <v>89353104</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -20218,15 +17548,6 @@
       </c>
       <c r="Q297" t="n">
         <v>0</v>
-      </c>
-      <c r="R297" t="n">
-        <v>3558993</v>
-      </c>
-      <c r="S297" t="n">
-        <v>-1004163</v>
-      </c>
-      <c r="T297" t="n">
-        <v>55147400</v>
       </c>
     </row>
     <row r="298">
@@ -20281,15 +17602,6 @@
         </is>
       </c>
       <c r="Q298" t="inlineStr"/>
-      <c r="R298" t="n">
-        <v>-2290279</v>
-      </c>
-      <c r="S298" t="n">
-        <v>-370943</v>
-      </c>
-      <c r="T298" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -20349,15 +17661,6 @@
       <c r="Q299" t="n">
         <v>-0</v>
       </c>
-      <c r="R299" t="n">
-        <v>-2978000</v>
-      </c>
-      <c r="S299" t="n">
-        <v>0</v>
-      </c>
-      <c r="T299" t="n">
-        <v>22624700</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -20419,15 +17722,6 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
-      <c r="R300" t="n">
-        <v>6401867</v>
-      </c>
-      <c r="S300" t="n">
-        <v>-17724</v>
-      </c>
-      <c r="T300" t="n">
-        <v>60864900</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -20488,15 +17782,6 @@
       </c>
       <c r="Q301" t="n">
         <v>-0</v>
-      </c>
-      <c r="R301" t="n">
-        <v>-855393</v>
-      </c>
-      <c r="S301" t="n">
-        <v>-6244</v>
-      </c>
-      <c r="T301" t="n">
-        <v>98348000</v>
       </c>
     </row>
     <row r="302">
@@ -20547,15 +17832,6 @@
       <c r="Q302" t="n">
         <v>-0</v>
       </c>
-      <c r="R302" t="n">
-        <v>-936541</v>
-      </c>
-      <c r="S302" t="n">
-        <v>-2177783</v>
-      </c>
-      <c r="T302" t="n">
-        <v>70453400</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -20612,15 +17888,6 @@
       </c>
       <c r="Q303" t="n">
         <v>-3</v>
-      </c>
-      <c r="R303" t="n">
-        <v>-122649000</v>
-      </c>
-      <c r="S303" t="n">
-        <v>-216628000</v>
-      </c>
-      <c r="T303" t="n">
-        <v>371110016</v>
       </c>
     </row>
     <row r="304">
@@ -20681,15 +17948,6 @@
       <c r="Q304" t="n">
         <v>-24</v>
       </c>
-      <c r="R304" t="n">
-        <v>-461914</v>
-      </c>
-      <c r="S304" t="n">
-        <v>-17339</v>
-      </c>
-      <c r="T304" t="n">
-        <v>1328000</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -20752,15 +18010,6 @@
       </c>
       <c r="Q305" t="n">
         <v>1</v>
-      </c>
-      <c r="R305" t="n">
-        <v>76119000</v>
-      </c>
-      <c r="S305" t="n">
-        <v>-5994000</v>
-      </c>
-      <c r="T305" t="n">
-        <v>54863300</v>
       </c>
     </row>
     <row r="306">
@@ -20823,15 +18072,6 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
-      <c r="R306" t="n">
-        <v>245215</v>
-      </c>
-      <c r="S306" t="n">
-        <v>-16757</v>
-      </c>
-      <c r="T306" t="n">
-        <v>14893700</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -20892,15 +18132,6 @@
       </c>
       <c r="Q307" t="n">
         <v>-77</v>
-      </c>
-      <c r="R307" t="n">
-        <v>-8954869</v>
-      </c>
-      <c r="S307" t="n">
-        <v>-9003111</v>
-      </c>
-      <c r="T307" t="n">
-        <v>42586500</v>
       </c>
     </row>
     <row r="308">
@@ -20961,15 +18192,6 @@
       <c r="Q308" t="n">
         <v>1</v>
       </c>
-      <c r="R308" t="n">
-        <v>99038</v>
-      </c>
-      <c r="S308" t="n">
-        <v>-84158</v>
-      </c>
-      <c r="T308" t="n">
-        <v>749475</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -21023,15 +18245,6 @@
         </is>
       </c>
       <c r="Q309" t="inlineStr"/>
-      <c r="R309" t="n">
-        <v>-9707</v>
-      </c>
-      <c r="S309" t="n">
-        <v>0</v>
-      </c>
-      <c r="T309" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -21087,15 +18300,6 @@
         </is>
       </c>
       <c r="Q310" t="inlineStr"/>
-      <c r="R310" t="n">
-        <v>-104906</v>
-      </c>
-      <c r="S310" t="n">
-        <v>-42427</v>
-      </c>
-      <c r="T310" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -21153,15 +18357,6 @@
       <c r="Q311" t="n">
         <v>-0</v>
       </c>
-      <c r="R311" t="n">
-        <v>-55668</v>
-      </c>
-      <c r="S311" t="n">
-        <v>0</v>
-      </c>
-      <c r="T311" t="n">
-        <v>224300000</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -21219,15 +18414,6 @@
       <c r="Q312" t="n">
         <v>-0</v>
       </c>
-      <c r="R312" t="n">
-        <v>-79608</v>
-      </c>
-      <c r="S312" t="n">
-        <v>-17269</v>
-      </c>
-      <c r="T312" t="n">
-        <v>536253</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -21288,15 +18474,6 @@
       </c>
       <c r="Q313" t="n">
         <v>-6</v>
-      </c>
-      <c r="R313" t="n">
-        <v>-2279000</v>
-      </c>
-      <c r="S313" t="n">
-        <v>-104000</v>
-      </c>
-      <c r="T313" t="n">
-        <v>37040000</v>
       </c>
     </row>
     <row r="314">
@@ -21355,15 +18532,6 @@
       <c r="Q314" t="n">
         <v>-1184275</v>
       </c>
-      <c r="R314" t="n">
-        <v>-215565</v>
-      </c>
-      <c r="S314" t="n">
-        <v>-495000</v>
-      </c>
-      <c r="T314" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -21424,15 +18592,6 @@
       </c>
       <c r="Q315" t="n">
         <v>1</v>
-      </c>
-      <c r="R315" t="n">
-        <v>9860021000</v>
-      </c>
-      <c r="S315" t="n">
-        <v>-3576685000</v>
-      </c>
-      <c r="T315" t="n">
-        <v>2259689984</v>
       </c>
     </row>
     <row r="316">
@@ -21493,15 +18652,6 @@
       <c r="Q316" t="n">
         <v>-1</v>
       </c>
-      <c r="R316" t="n">
-        <v>-36569467</v>
-      </c>
-      <c r="S316" t="n">
-        <v>-36983361</v>
-      </c>
-      <c r="T316" t="n">
-        <v>141200000</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -21564,15 +18714,6 @@
       </c>
       <c r="Q317" t="n">
         <v>-5</v>
-      </c>
-      <c r="R317" t="n">
-        <v>-1428079</v>
-      </c>
-      <c r="S317" t="n">
-        <v>-27643</v>
-      </c>
-      <c r="T317" t="n">
-        <v>13879200</v>
       </c>
     </row>
     <row r="318">
@@ -21633,15 +18774,6 @@
       <c r="Q318" t="n">
         <v>-2</v>
       </c>
-      <c r="R318" t="n">
-        <v>-1411668</v>
-      </c>
-      <c r="S318" t="n">
-        <v>153695</v>
-      </c>
-      <c r="T318" t="n">
-        <v>10094700</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -21703,15 +18835,6 @@
       <c r="Q319" t="n">
         <v>-0</v>
       </c>
-      <c r="R319" t="n">
-        <v>-255022</v>
-      </c>
-      <c r="S319" t="n">
-        <v>-363478</v>
-      </c>
-      <c r="T319" t="n">
-        <v>62658800</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -21773,15 +18896,6 @@
       <c r="Q320" t="n">
         <v>-1</v>
       </c>
-      <c r="R320" t="n">
-        <v>-622900000</v>
-      </c>
-      <c r="S320" t="n">
-        <v>-166600000</v>
-      </c>
-      <c r="T320" t="n">
-        <v>1405959936</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -21839,15 +18953,6 @@
         </is>
       </c>
       <c r="Q321" t="inlineStr"/>
-      <c r="R321" t="n">
-        <v>-2718000</v>
-      </c>
-      <c r="S321" t="n">
-        <v>-112000</v>
-      </c>
-      <c r="T321" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -21909,15 +19014,6 @@
       <c r="Q322" t="n">
         <v>2</v>
       </c>
-      <c r="R322" t="n">
-        <v>1332451000</v>
-      </c>
-      <c r="S322" t="n">
-        <v>-83316000</v>
-      </c>
-      <c r="T322" t="n">
-        <v>443876992</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -21975,15 +19071,6 @@
       <c r="Q323" t="n">
         <v>-0</v>
       </c>
-      <c r="R323" t="n">
-        <v>-1066000</v>
-      </c>
-      <c r="S323" t="n">
-        <v>-3762000</v>
-      </c>
-      <c r="T323" t="n">
-        <v>875588992</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -22039,15 +19126,6 @@
         </is>
       </c>
       <c r="Q324" t="inlineStr"/>
-      <c r="R324" t="n">
-        <v>-14333158138</v>
-      </c>
-      <c r="S324" t="n">
-        <v>-10628495339</v>
-      </c>
-      <c r="T324" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -22097,15 +19175,6 @@
       <c r="Q325" t="n">
         <v>-0</v>
       </c>
-      <c r="R325" t="n">
-        <v>-2296</v>
-      </c>
-      <c r="S325" t="n">
-        <v>0</v>
-      </c>
-      <c r="T325" t="n">
-        <v>17696000</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -22163,15 +19232,6 @@
       <c r="Q326" t="n">
         <v>-302</v>
       </c>
-      <c r="R326" t="n">
-        <v>-1608384</v>
-      </c>
-      <c r="S326" t="n">
-        <v>-842787</v>
-      </c>
-      <c r="T326" t="n">
-        <v>1531400</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -22226,15 +19286,6 @@
       </c>
       <c r="Q327" t="n">
         <v>7</v>
-      </c>
-      <c r="R327" t="n">
-        <v>-495995</v>
-      </c>
-      <c r="S327" t="n">
-        <v>899353</v>
-      </c>
-      <c r="T327" t="n">
-        <v>2041000</v>
       </c>
     </row>
   </sheetData>

--- a/5_df_output.xlsx
+++ b/5_df_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q327"/>
+  <dimension ref="A1:R327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,12 +511,17 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Total Debt (mrq)</t>
+          <t>Debt</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>OwnEa/S/P</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>QtrGrwth</t>
         </is>
       </c>
     </row>
@@ -574,6 +579,7 @@
       <c r="Q2" t="n">
         <v>1</v>
       </c>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -623,13 +629,16 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>516.88M</t>
-        </is>
+      <c r="P3" t="n">
+        <v>516880000</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-4.50%</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -682,14 +691,17 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>17.12M</t>
-        </is>
+      <c r="P4" t="n">
+        <v>17120000</v>
       </c>
       <c r="Q4" t="n">
         <v>74</v>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-7.40%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -739,12 +751,15 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>350.1k</t>
-        </is>
+      <c r="P5" t="n">
+        <v>350100</v>
       </c>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-39.80%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -794,13 +809,16 @@
       <c r="O6" t="n">
         <v>6</v>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>5.62M</t>
-        </is>
+      <c r="P6" t="n">
+        <v>5620000</v>
       </c>
       <c r="Q6" t="n">
         <v>-24</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-84.30%</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -849,6 +867,11 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-26.30%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -900,6 +923,7 @@
       <c r="Q8" t="n">
         <v>-0</v>
       </c>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -951,6 +975,11 @@
       <c r="Q9" t="n">
         <v>-0</v>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>40.50%</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1004,13 +1033,16 @@
       <c r="O10" t="n">
         <v>-0</v>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>4.75M</t>
-        </is>
+      <c r="P10" t="n">
+        <v>4750000</v>
       </c>
       <c r="Q10" t="n">
         <v>3</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>7.80%</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1063,6 +1095,11 @@
       <c r="Q11" t="n">
         <v>-0</v>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-3.80%</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1116,13 +1153,16 @@
       <c r="O12" t="n">
         <v>-1</v>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1.43M</t>
-        </is>
+      <c r="P12" t="n">
+        <v>1430000</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-0.40%</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1175,13 +1215,16 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>684.22k</t>
-        </is>
+      <c r="P13" t="n">
+        <v>684220</v>
       </c>
       <c r="Q13" t="n">
         <v>-2</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>3.00%</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1236,6 +1279,7 @@
       <c r="Q14" t="n">
         <v>-25</v>
       </c>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1286,6 +1330,11 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
         <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-3.80%</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1338,13 +1387,16 @@
       <c r="O16" t="n">
         <v>-0</v>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>3.77M</t>
-        </is>
+      <c r="P16" t="n">
+        <v>3770000</v>
       </c>
       <c r="Q16" t="n">
         <v>-9</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>-3.00%</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1399,13 +1451,16 @@
       <c r="O17" t="n">
         <v>-0</v>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>197.71M</t>
-        </is>
+      <c r="P17" t="n">
+        <v>197710000</v>
       </c>
       <c r="Q17" t="n">
         <v>-113</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-11.90%</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1454,12 +1509,11 @@
       <c r="O18" t="n">
         <v>-7</v>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>120.33k</t>
-        </is>
+      <c r="P18" t="n">
+        <v>120330</v>
       </c>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1513,6 +1567,11 @@
       <c r="Q19" t="n">
         <v>-17</v>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>136.80%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1560,12 +1619,11 @@
       <c r="O20" t="n">
         <v>-1</v>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>39.62M</t>
-        </is>
+      <c r="P20" t="n">
+        <v>39620000</v>
       </c>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1621,13 +1679,16 @@
       <c r="O21" t="n">
         <v>-2</v>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>750k</t>
-        </is>
+      <c r="P21" t="n">
+        <v>750000</v>
       </c>
       <c r="Q21" t="n">
         <v>-29</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>-94.90%</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1678,13 +1739,16 @@
       <c r="O22" t="n">
         <v>340</v>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>8.44k</t>
-        </is>
+      <c r="P22" t="n">
+        <v>8440</v>
       </c>
       <c r="Q22" t="n">
         <v>-16</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>1,150.30%</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1737,6 +1801,7 @@
       <c r="Q23" t="n">
         <v>-113</v>
       </c>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1790,13 +1855,16 @@
       <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>648.45M</t>
-        </is>
+      <c r="P24" t="n">
+        <v>648450000</v>
       </c>
       <c r="Q24" t="n">
         <v>65</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>-17.40%</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1847,6 +1915,11 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.80%</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1900,13 +1973,16 @@
       <c r="O26" t="n">
         <v>-0</v>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>549.73M</t>
-        </is>
+      <c r="P26" t="n">
+        <v>549730000</v>
       </c>
       <c r="Q26" t="n">
         <v>-23</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>-25.30%</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1961,13 +2037,16 @@
       <c r="O27" t="n">
         <v>10</v>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>4.58M</t>
-        </is>
+      <c r="P27" t="n">
+        <v>4580000</v>
       </c>
       <c r="Q27" t="n">
         <v>-1</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>-21.90%</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2018,13 +2097,16 @@
       <c r="O28" t="n">
         <v>3</v>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>59.18M</t>
-        </is>
+      <c r="P28" t="n">
+        <v>59180000</v>
       </c>
       <c r="Q28" t="n">
         <v>-0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2079,13 +2161,16 @@
       <c r="O29" t="n">
         <v>0</v>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>4.91B</t>
-        </is>
+      <c r="P29" t="n">
+        <v>4910000000</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>-3.70%</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2136,13 +2221,16 @@
       <c r="O30" t="n">
         <v>15</v>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>253M</t>
-        </is>
+      <c r="P30" t="n">
+        <v>253000000</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>-1.30%</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2197,13 +2285,16 @@
       <c r="O31" t="n">
         <v>-1</v>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>138.1M</t>
-        </is>
+      <c r="P31" t="n">
+        <v>138100000</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>62.60%</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2258,13 +2349,16 @@
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>474.72M</t>
-        </is>
+      <c r="P32" t="n">
+        <v>474720000</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>-6.60%</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2317,13 +2411,16 @@
       <c r="O33" t="n">
         <v>23</v>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>122.08k</t>
-        </is>
+      <c r="P33" t="n">
+        <v>122080</v>
       </c>
       <c r="Q33" t="n">
         <v>-2</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>109.90%</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2374,6 +2471,7 @@
       <c r="Q34" t="n">
         <v>-0</v>
       </c>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2427,13 +2525,16 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>506.16M</t>
-        </is>
+      <c r="P35" t="n">
+        <v>506160000</v>
       </c>
       <c r="Q35" t="n">
         <v>-0</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>-54.70%</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2484,12 +2585,15 @@
       <c r="O36" t="n">
         <v>-0</v>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>17.99B</t>
-        </is>
+      <c r="P36" t="n">
+        <v>17990000000</v>
       </c>
       <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>17.90%</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2545,6 +2649,11 @@
       <c r="Q37" t="n">
         <v>-0</v>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>-26.20%</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2594,14 +2703,13 @@
       <c r="O38" t="n">
         <v>-1</v>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>69.95M</t>
-        </is>
+      <c r="P38" t="n">
+        <v>69950000</v>
       </c>
       <c r="Q38" t="n">
         <v>-0</v>
       </c>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2649,13 +2757,16 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>10.11M</t>
-        </is>
+      <c r="P39" t="n">
+        <v>10110000</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>37.00%</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2706,13 +2817,16 @@
       <c r="O40" t="n">
         <v>24</v>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>583.77k</t>
-        </is>
+      <c r="P40" t="n">
+        <v>583770</v>
       </c>
       <c r="Q40" t="n">
         <v>-0</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>4.70%</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2767,6 +2881,7 @@
       <c r="Q41" t="n">
         <v>-0</v>
       </c>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2820,13 +2935,16 @@
       <c r="O42" t="n">
         <v>15</v>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>375.19k</t>
-        </is>
+      <c r="P42" t="n">
+        <v>375190</v>
       </c>
       <c r="Q42" t="n">
         <v>-0</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>-38.20%</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2877,6 +2995,11 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>126.00%</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2926,6 +3049,7 @@
       <c r="Q44" t="n">
         <v>-0</v>
       </c>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2973,14 +3097,13 @@
       <c r="O45" t="n">
         <v>10</v>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>152.83k</t>
-        </is>
+      <c r="P45" t="n">
+        <v>152830</v>
       </c>
       <c r="Q45" t="n">
         <v>-0</v>
       </c>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3034,13 +3157,16 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>381M</t>
-        </is>
+      <c r="P46" t="n">
+        <v>381000000</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>-10.10%</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3097,13 +3223,16 @@
       <c r="O47" t="n">
         <v>37</v>
       </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>441.51k</t>
-        </is>
+      <c r="P47" t="n">
+        <v>441510</v>
       </c>
       <c r="Q47" t="n">
         <v>-0</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>261.50%</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -3156,13 +3285,16 @@
       <c r="O48" t="n">
         <v>-0</v>
       </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>11.05B</t>
-        </is>
+      <c r="P48" t="n">
+        <v>11050000000</v>
       </c>
       <c r="Q48" t="n">
         <v>-0</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>-68.10%</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -3217,13 +3349,16 @@
       <c r="O49" t="n">
         <v>8</v>
       </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>673.78k</t>
-        </is>
+      <c r="P49" t="n">
+        <v>673780</v>
       </c>
       <c r="Q49" t="n">
         <v>-17</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>-80.90%</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3272,6 +3407,11 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>209.50%</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3321,14 +3461,13 @@
       <c r="O51" t="n">
         <v>-0</v>
       </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>3.43M</t>
-        </is>
+      <c r="P51" t="n">
+        <v>3430000</v>
       </c>
       <c r="Q51" t="n">
         <v>-1</v>
       </c>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3382,13 +3521,16 @@
       <c r="O52" t="n">
         <v>-0</v>
       </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>16.4B</t>
-        </is>
+      <c r="P52" t="n">
+        <v>16400000000</v>
       </c>
       <c r="Q52" t="n">
         <v>3</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>-0.50%</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -3437,12 +3579,15 @@
       <c r="O53" t="n">
         <v>-0</v>
       </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>1.97M</t>
-        </is>
+      <c r="P53" t="n">
+        <v>1970000</v>
       </c>
       <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>-58.90%</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3498,13 +3643,16 @@
       <c r="O54" t="n">
         <v>0</v>
       </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>68.28M</t>
-        </is>
+      <c r="P54" t="n">
+        <v>68280000</v>
       </c>
       <c r="Q54" t="n">
         <v>-0</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>22.40%</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -3555,12 +3703,15 @@
       <c r="O55" t="n">
         <v>5</v>
       </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>250k</t>
-        </is>
+      <c r="P55" t="n">
+        <v>250000</v>
       </c>
       <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>-18.50%</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3616,13 +3767,16 @@
       <c r="O56" t="n">
         <v>2</v>
       </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>40.31M</t>
-        </is>
+      <c r="P56" t="n">
+        <v>40310000</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>-15.10%</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -3673,12 +3827,15 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>2.92M</t>
-        </is>
+      <c r="P57" t="n">
+        <v>2920000</v>
       </c>
       <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>-8.40%</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3728,6 +3885,7 @@
       <c r="Q58" t="n">
         <v>-1</v>
       </c>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3783,14 +3941,17 @@
       <c r="O59" t="n">
         <v>0</v>
       </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>39.41M</t>
-        </is>
+      <c r="P59" t="n">
+        <v>39410000</v>
       </c>
       <c r="Q59" t="n">
         <v>-0</v>
       </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>-32.70%</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3844,13 +4005,16 @@
       <c r="O60" t="n">
         <v>-0</v>
       </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>20.4M</t>
-        </is>
+      <c r="P60" t="n">
+        <v>20400000</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>-57.10%</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -3901,12 +4065,15 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>24.02B</t>
-        </is>
+      <c r="P61" t="n">
+        <v>24020000000</v>
       </c>
       <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>-18.80%</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3960,14 +4127,17 @@
       <c r="O62" t="n">
         <v>0</v>
       </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>48.34M</t>
-        </is>
+      <c r="P62" t="n">
+        <v>48340000</v>
       </c>
       <c r="Q62" t="n">
         <v>-1</v>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>394.10%</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4023,13 +4193,16 @@
       <c r="O63" t="n">
         <v>19</v>
       </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>2.5M</t>
-        </is>
+      <c r="P63" t="n">
+        <v>2500000</v>
       </c>
       <c r="Q63" t="n">
         <v>-0</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>-2.30%</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4082,13 +4255,16 @@
       <c r="O64" t="n">
         <v>3</v>
       </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>90.64M</t>
-        </is>
+      <c r="P64" t="n">
+        <v>90640000</v>
       </c>
       <c r="Q64" t="n">
         <v>-0</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>49.30%</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4141,13 +4317,16 @@
       <c r="O65" t="n">
         <v>0</v>
       </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>1.47B</t>
-        </is>
+      <c r="P65" t="n">
+        <v>1470000000</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>-7.80%</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4196,6 +4375,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4249,14 +4429,17 @@
       <c r="O67" t="n">
         <v>4</v>
       </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>16.46M</t>
-        </is>
+      <c r="P67" t="n">
+        <v>16460000</v>
       </c>
       <c r="Q67" t="n">
         <v>-0</v>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>89.10%</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4312,13 +4495,16 @@
       <c r="O68" t="n">
         <v>14</v>
       </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>6.23M</t>
-        </is>
+      <c r="P68" t="n">
+        <v>6230000</v>
       </c>
       <c r="Q68" t="n">
         <v>-0</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>63.70%</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -4373,13 +4559,16 @@
       <c r="O69" t="n">
         <v>0</v>
       </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>12.52M</t>
-        </is>
+      <c r="P69" t="n">
+        <v>12520000</v>
       </c>
       <c r="Q69" t="n">
         <v>-0</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>-71.20%</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -4430,6 +4619,11 @@
       <c r="Q70" t="n">
         <v>1</v>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>-34.50%</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4483,14 +4677,17 @@
       <c r="O71" t="n">
         <v>-0</v>
       </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>3.48B</t>
-        </is>
+      <c r="P71" t="n">
+        <v>3480000000</v>
       </c>
       <c r="Q71" t="n">
         <v>-1</v>
       </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>-59.10%</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4546,14 +4743,13 @@
       <c r="O72" t="n">
         <v>-1</v>
       </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>7.87B</t>
-        </is>
+      <c r="P72" t="n">
+        <v>7870000000</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4607,6 +4803,11 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>-7.80%</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4656,13 +4857,16 @@
       <c r="O74" t="n">
         <v>-0</v>
       </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>378.45M</t>
-        </is>
+      <c r="P74" t="n">
+        <v>378450000</v>
       </c>
       <c r="Q74" t="n">
         <v>-4</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>25.10%</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -4713,13 +4917,16 @@
       <c r="O75" t="n">
         <v>10</v>
       </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>641.84k</t>
-        </is>
+      <c r="P75" t="n">
+        <v>641840</v>
       </c>
       <c r="Q75" t="n">
         <v>-0</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>-2.60%</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -4770,14 +4977,13 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>6.35M</t>
-        </is>
+      <c r="P76" t="n">
+        <v>6350000</v>
       </c>
       <c r="Q76" t="n">
         <v>-0</v>
       </c>
+      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4829,13 +5035,16 @@
       <c r="O77" t="n">
         <v>0</v>
       </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>2.69M</t>
-        </is>
+      <c r="P77" t="n">
+        <v>2690000</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>-4.40%</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -4890,13 +5099,16 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>61.92M</t>
-        </is>
+      <c r="P78" t="n">
+        <v>61920000</v>
       </c>
       <c r="Q78" t="n">
         <v>-0</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -4951,13 +5163,16 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>36.26M</t>
-        </is>
+      <c r="P79" t="n">
+        <v>36260000</v>
       </c>
       <c r="Q79" t="n">
         <v>-0</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>-51.60%</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -5010,13 +5225,16 @@
       <c r="O80" t="n">
         <v>0</v>
       </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>161.37M</t>
-        </is>
+      <c r="P80" t="n">
+        <v>161370000</v>
       </c>
       <c r="Q80" t="n">
         <v>-1</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>63.30%</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -5071,13 +5289,16 @@
       <c r="O81" t="n">
         <v>0</v>
       </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>539.1M</t>
-        </is>
+      <c r="P81" t="n">
+        <v>539100000</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>-0.90%</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -5132,13 +5353,16 @@
       <c r="O82" t="n">
         <v>2</v>
       </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>5.97M</t>
-        </is>
+      <c r="P82" t="n">
+        <v>5970000</v>
       </c>
       <c r="Q82" t="n">
         <v>-0</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>-55.20%</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -5187,6 +5411,7 @@
       <c r="Q83" t="n">
         <v>-0</v>
       </c>
+      <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5240,13 +5465,16 @@
       <c r="O84" t="n">
         <v>0</v>
       </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>19.54B</t>
-        </is>
+      <c r="P84" t="n">
+        <v>19540000000</v>
       </c>
       <c r="Q84" t="n">
         <v>3</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>-15.10%</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -5301,13 +5529,16 @@
       <c r="O85" t="n">
         <v>-0</v>
       </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>181.5M</t>
-        </is>
+      <c r="P85" t="n">
+        <v>181500000</v>
       </c>
       <c r="Q85" t="n">
         <v>-0</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>-23.50%</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -5362,13 +5593,16 @@
       <c r="O86" t="n">
         <v>-0</v>
       </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>5.38M</t>
-        </is>
+      <c r="P86" t="n">
+        <v>5380000</v>
       </c>
       <c r="Q86" t="n">
         <v>-0</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>774.70%</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -5423,6 +5657,7 @@
       <c r="Q87" t="n">
         <v>-0</v>
       </c>
+      <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5476,13 +5711,16 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>180.04M</t>
-        </is>
+      <c r="P88" t="n">
+        <v>180040000</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>23.20%</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -5535,14 +5773,13 @@
       <c r="O89" t="n">
         <v>-0</v>
       </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>12.58M</t>
-        </is>
+      <c r="P89" t="n">
+        <v>12580000</v>
       </c>
       <c r="Q89" t="n">
         <v>-0</v>
       </c>
+      <c r="R89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5596,13 +5833,16 @@
       <c r="O90" t="n">
         <v>0</v>
       </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>300.44M</t>
-        </is>
+      <c r="P90" t="n">
+        <v>300440000</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>3.60%</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -5655,14 +5895,17 @@
       <c r="O91" t="n">
         <v>94</v>
       </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>211k</t>
-        </is>
+      <c r="P91" t="n">
+        <v>211000</v>
       </c>
       <c r="Q91" t="n">
         <v>-1</v>
       </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>0.60%</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5718,14 +5961,13 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>22.21M</t>
-        </is>
+      <c r="P92" t="n">
+        <v>22210000</v>
       </c>
       <c r="Q92" t="n">
         <v>-0</v>
       </c>
+      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5775,6 +6017,7 @@
       <c r="Q93" t="n">
         <v>-0</v>
       </c>
+      <c r="R93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5828,13 +6071,16 @@
       <c r="O94" t="n">
         <v>297</v>
       </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>15.04k</t>
-        </is>
+      <c r="P94" t="n">
+        <v>15040</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>-14.70%</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -5885,6 +6131,11 @@
       <c r="Q95" t="n">
         <v>-0</v>
       </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>40.10%</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5938,13 +6189,16 @@
       <c r="O96" t="n">
         <v>-0</v>
       </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>51.62M</t>
-        </is>
+      <c r="P96" t="n">
+        <v>51620000</v>
       </c>
       <c r="Q96" t="n">
         <v>-0</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>-31.60%</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -5995,13 +6249,16 @@
       <c r="O97" t="n">
         <v>12</v>
       </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>877.3k</t>
-        </is>
+      <c r="P97" t="n">
+        <v>877300</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>-50.30%</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -6058,13 +6315,16 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>62.9M</t>
-        </is>
+      <c r="P98" t="n">
+        <v>62900000</v>
       </c>
       <c r="Q98" t="n">
         <v>-1</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>7.40%</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -6115,14 +6375,13 @@
       <c r="O99" t="n">
         <v>8</v>
       </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>60k</t>
-        </is>
+      <c r="P99" t="n">
+        <v>60000</v>
       </c>
       <c r="Q99" t="n">
         <v>-2</v>
       </c>
+      <c r="R99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6176,6 +6435,11 @@
       <c r="Q100" t="n">
         <v>1</v>
       </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>62.30%</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6229,13 +6493,16 @@
       <c r="O101" t="n">
         <v>0</v>
       </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>90.5M</t>
-        </is>
+      <c r="P101" t="n">
+        <v>90500000</v>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>-24.40%</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -6290,13 +6557,16 @@
       <c r="O102" t="n">
         <v>0</v>
       </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>4.3B</t>
-        </is>
+      <c r="P102" t="n">
+        <v>4300000000</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>-15.60%</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -6351,13 +6621,16 @@
       <c r="O103" t="n">
         <v>0</v>
       </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>48.65M</t>
-        </is>
+      <c r="P103" t="n">
+        <v>48650000</v>
       </c>
       <c r="Q103" t="n">
         <v>0</v>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>41.90%</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -6408,12 +6681,15 @@
       <c r="O104" t="n">
         <v>3</v>
       </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>2.61B</t>
-        </is>
+      <c r="P104" t="n">
+        <v>2610000000</v>
       </c>
       <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>-35.10%</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6463,13 +6739,16 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>4.18M</t>
-        </is>
+      <c r="P105" t="n">
+        <v>4180000</v>
       </c>
       <c r="Q105" t="n">
         <v>-0</v>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>-10.50%</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -6520,12 +6799,15 @@
       <c r="O106" t="n">
         <v>-0</v>
       </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>21.6M</t>
-        </is>
+      <c r="P106" t="n">
+        <v>21600000</v>
       </c>
       <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>24.80%</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6579,13 +6861,16 @@
       <c r="O107" t="n">
         <v>2</v>
       </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>2.38M</t>
-        </is>
+      <c r="P107" t="n">
+        <v>2380000</v>
       </c>
       <c r="Q107" t="n">
         <v>-0</v>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>-8.60%</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -6640,14 +6925,17 @@
       <c r="O108" t="n">
         <v>0</v>
       </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>20.39M</t>
-        </is>
+      <c r="P108" t="n">
+        <v>20390000</v>
       </c>
       <c r="Q108" t="n">
         <v>-0</v>
       </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>18.20%</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6703,13 +6991,16 @@
       <c r="O109" t="n">
         <v>1</v>
       </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>11.55M</t>
-        </is>
+      <c r="P109" t="n">
+        <v>11550000</v>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>-6.90%</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -6764,13 +7055,16 @@
       <c r="O110" t="n">
         <v>1</v>
       </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>26.71B</t>
-        </is>
+      <c r="P110" t="n">
+        <v>26710000000</v>
       </c>
       <c r="Q110" t="n">
         <v>-3</v>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>107.80%</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -6825,14 +7119,13 @@
       <c r="O111" t="n">
         <v>6</v>
       </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>1.34M</t>
-        </is>
+      <c r="P111" t="n">
+        <v>1340000</v>
       </c>
       <c r="Q111" t="n">
         <v>-0</v>
       </c>
+      <c r="R111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6886,13 +7179,16 @@
       <c r="O112" t="n">
         <v>4</v>
       </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>31.59M</t>
-        </is>
+      <c r="P112" t="n">
+        <v>31590000</v>
       </c>
       <c r="Q112" t="n">
         <v>-0</v>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>73.40%</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -6943,14 +7239,13 @@
       <c r="O113" t="n">
         <v>111</v>
       </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>476.74k</t>
-        </is>
+      <c r="P113" t="n">
+        <v>476740</v>
       </c>
       <c r="Q113" t="n">
         <v>-0</v>
       </c>
+      <c r="R113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7004,14 +7299,17 @@
       <c r="O114" t="n">
         <v>0</v>
       </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>180.8M</t>
-        </is>
+      <c r="P114" t="n">
+        <v>180800000</v>
       </c>
       <c r="Q114" t="n">
         <v>-1</v>
       </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>-32.20%</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7065,13 +7363,16 @@
       <c r="O115" t="n">
         <v>0</v>
       </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>65.59B</t>
-        </is>
+      <c r="P115" t="n">
+        <v>65590000000</v>
       </c>
       <c r="Q115" t="n">
         <v>-0</v>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>-1.60%</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -7124,6 +7425,11 @@
       <c r="Q116" t="n">
         <v>-1</v>
       </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>22.90%</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7177,13 +7483,16 @@
       <c r="O117" t="n">
         <v>0</v>
       </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>123.9B</t>
-        </is>
+      <c r="P117" t="n">
+        <v>123900000000</v>
       </c>
       <c r="Q117" t="n">
         <v>12</v>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>14.90%</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -7234,13 +7543,16 @@
       <c r="O118" t="n">
         <v>1</v>
       </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>29.77M</t>
-        </is>
+      <c r="P118" t="n">
+        <v>29770000</v>
       </c>
       <c r="Q118" t="n">
         <v>0</v>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>-26.40%</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -7291,6 +7603,7 @@
       <c r="Q119" t="n">
         <v>-0</v>
       </c>
+      <c r="R119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7342,12 +7655,11 @@
       <c r="O120" t="n">
         <v>5</v>
       </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>809k</t>
-        </is>
+      <c r="P120" t="n">
+        <v>809000</v>
       </c>
       <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7395,12 +7707,15 @@
       <c r="O121" t="n">
         <v>1</v>
       </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
+      <c r="P121" t="n">
+        <v>1310000</v>
       </c>
       <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>-20.70%</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7454,14 +7769,17 @@
       <c r="O122" t="n">
         <v>0</v>
       </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>5.55M</t>
-        </is>
+      <c r="P122" t="n">
+        <v>5550000</v>
       </c>
       <c r="Q122" t="n">
         <v>-0</v>
       </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>85.30%</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7517,13 +7835,16 @@
       <c r="O123" t="n">
         <v>-0</v>
       </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>147.5M</t>
-        </is>
+      <c r="P123" t="n">
+        <v>147500000</v>
       </c>
       <c r="Q123" t="n">
         <v>-1</v>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>-59.60%</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -7576,13 +7897,16 @@
       <c r="O124" t="n">
         <v>7</v>
       </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>300k</t>
-        </is>
+      <c r="P124" t="n">
+        <v>300000</v>
       </c>
       <c r="Q124" t="n">
         <v>0</v>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>12.70%</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -7633,6 +7957,7 @@
       <c r="Q125" t="n">
         <v>-1</v>
       </c>
+      <c r="R125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7688,6 +8013,7 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7743,13 +8069,16 @@
       <c r="O127" t="n">
         <v>0</v>
       </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>959.53M</t>
-        </is>
+      <c r="P127" t="n">
+        <v>959530000</v>
       </c>
       <c r="Q127" t="n">
         <v>0</v>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>-6.30%</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -7804,13 +8133,16 @@
       <c r="O128" t="n">
         <v>1</v>
       </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>14.99B</t>
-        </is>
+      <c r="P128" t="n">
+        <v>14990000000</v>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>9.70%</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -7861,13 +8193,16 @@
       <c r="O129" t="n">
         <v>2</v>
       </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>240M</t>
-        </is>
+      <c r="P129" t="n">
+        <v>240000000</v>
       </c>
       <c r="Q129" t="n">
         <v>-0</v>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>-31.70%</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -7918,12 +8253,15 @@
       <c r="O130" t="n">
         <v>1</v>
       </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>2.53M</t>
-        </is>
+      <c r="P130" t="n">
+        <v>2530000</v>
       </c>
       <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>-1.90%</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7973,14 +8311,13 @@
       <c r="O131" t="n">
         <v>9</v>
       </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>120.38k</t>
-        </is>
+      <c r="P131" t="n">
+        <v>120380</v>
       </c>
       <c r="Q131" t="n">
         <v>-0</v>
       </c>
+      <c r="R131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8028,14 +8365,13 @@
       <c r="O132" t="n">
         <v>33</v>
       </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>40k</t>
-        </is>
+      <c r="P132" t="n">
+        <v>40000</v>
       </c>
       <c r="Q132" t="n">
         <v>-0</v>
       </c>
+      <c r="R132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8089,13 +8425,16 @@
       <c r="O133" t="n">
         <v>1</v>
       </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>212.69M</t>
-        </is>
+      <c r="P133" t="n">
+        <v>212690000</v>
       </c>
       <c r="Q133" t="n">
         <v>-15</v>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>-45.90%</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -8144,12 +8483,15 @@
       <c r="O134" t="n">
         <v>29</v>
       </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>622.91k</t>
-        </is>
+      <c r="P134" t="n">
+        <v>622910</v>
       </c>
       <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>142.40%</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8203,14 +8545,17 @@
       <c r="O135" t="n">
         <v>0</v>
       </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>11.93M</t>
-        </is>
+      <c r="P135" t="n">
+        <v>11930000</v>
       </c>
       <c r="Q135" t="n">
         <v>-0</v>
       </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>14.80%</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8266,14 +8611,13 @@
       <c r="O136" t="n">
         <v>-9</v>
       </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>530k</t>
-        </is>
+      <c r="P136" t="n">
+        <v>530000</v>
       </c>
       <c r="Q136" t="n">
         <v>-15</v>
       </c>
+      <c r="R136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8325,6 +8669,11 @@
       <c r="Q137" t="n">
         <v>-1</v>
       </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>-2.10%</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8378,14 +8727,13 @@
       <c r="O138" t="n">
         <v>1</v>
       </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>953.28M</t>
-        </is>
+      <c r="P138" t="n">
+        <v>953280000</v>
       </c>
       <c r="Q138" t="n">
         <v>-0</v>
       </c>
+      <c r="R138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8439,14 +8787,13 @@
       <c r="O139" t="n">
         <v>1</v>
       </c>
-      <c r="P139" t="inlineStr">
-        <is>
-          <t>34.31M</t>
-        </is>
+      <c r="P139" t="n">
+        <v>34310000</v>
       </c>
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8502,13 +8849,16 @@
       <c r="O140" t="n">
         <v>1</v>
       </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>21.02M</t>
-        </is>
+      <c r="P140" t="n">
+        <v>21020000</v>
       </c>
       <c r="Q140" t="n">
         <v>-2</v>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>-27.70%</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -8563,13 +8913,16 @@
       <c r="O141" t="n">
         <v>12</v>
       </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>564.42k</t>
-        </is>
+      <c r="P141" t="n">
+        <v>564420</v>
       </c>
       <c r="Q141" t="n">
         <v>-0</v>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>81.60%</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -8618,12 +8971,15 @@
       <c r="O142" t="n">
         <v>1</v>
       </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>312.82k</t>
-        </is>
+      <c r="P142" t="n">
+        <v>312820</v>
       </c>
       <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>-46.30%</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8671,12 +9027,15 @@
       <c r="O143" t="n">
         <v>-1</v>
       </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>2.23M</t>
-        </is>
+      <c r="P143" t="n">
+        <v>2230000</v>
       </c>
       <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>127.40%</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8730,13 +9089,16 @@
       <c r="O144" t="n">
         <v>0</v>
       </c>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>72.21M</t>
-        </is>
+      <c r="P144" t="n">
+        <v>72210000</v>
       </c>
       <c r="Q144" t="n">
         <v>0</v>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>-10.10%</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -8785,12 +9147,15 @@
       <c r="O145" t="n">
         <v>35</v>
       </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>330.28k</t>
-        </is>
+      <c r="P145" t="n">
+        <v>330280</v>
       </c>
       <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>-55.40%</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8846,13 +9211,16 @@
       <c r="O146" t="n">
         <v>1</v>
       </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>65.46M</t>
-        </is>
+      <c r="P146" t="n">
+        <v>65460000</v>
       </c>
       <c r="Q146" t="n">
         <v>-1</v>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>15.90%</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -8907,13 +9275,16 @@
       <c r="O147" t="n">
         <v>0</v>
       </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>81.92M</t>
-        </is>
+      <c r="P147" t="n">
+        <v>81920000</v>
       </c>
       <c r="Q147" t="n">
         <v>-0</v>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>-34.20%</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -8968,13 +9339,16 @@
       <c r="O148" t="n">
         <v>-0</v>
       </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>3.99B</t>
-        </is>
+      <c r="P148" t="n">
+        <v>3990000000</v>
       </c>
       <c r="Q148" t="n">
         <v>0</v>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>47.80%</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -9029,14 +9403,13 @@
       <c r="O149" t="n">
         <v>0</v>
       </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>641.55M</t>
-        </is>
+      <c r="P149" t="n">
+        <v>641550000</v>
       </c>
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9086,12 +9459,15 @@
       <c r="O150" t="n">
         <v>0</v>
       </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>7.15M</t>
-        </is>
+      <c r="P150" t="n">
+        <v>7150000</v>
       </c>
       <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>-28.10%</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9145,14 +9521,13 @@
       <c r="O151" t="n">
         <v>1</v>
       </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>953.28M</t>
-        </is>
+      <c r="P151" t="n">
+        <v>953280000</v>
       </c>
       <c r="Q151" t="n">
         <v>-0</v>
       </c>
+      <c r="R151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9206,13 +9581,16 @@
       <c r="O152" t="n">
         <v>-0</v>
       </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>548.25M</t>
-        </is>
+      <c r="P152" t="n">
+        <v>548250000</v>
       </c>
       <c r="Q152" t="n">
         <v>0</v>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>-1.40%</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -9261,12 +9639,11 @@
       <c r="O153" t="n">
         <v>0</v>
       </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>504.29k</t>
-        </is>
+      <c r="P153" t="n">
+        <v>504290</v>
       </c>
       <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9314,14 +9691,13 @@
       <c r="O154" t="n">
         <v>6</v>
       </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>38.23k</t>
-        </is>
+      <c r="P154" t="n">
+        <v>38230</v>
       </c>
       <c r="Q154" t="n">
         <v>-0</v>
       </c>
+      <c r="R154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9371,14 +9747,13 @@
       <c r="O155" t="n">
         <v>188</v>
       </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>58.61k</t>
-        </is>
+      <c r="P155" t="n">
+        <v>58610</v>
       </c>
       <c r="Q155" t="n">
         <v>-0</v>
       </c>
+      <c r="R155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9432,13 +9807,16 @@
       <c r="O156" t="n">
         <v>0</v>
       </c>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>75.15B</t>
-        </is>
+      <c r="P156" t="n">
+        <v>75150000000</v>
       </c>
       <c r="Q156" t="n">
         <v>0</v>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>11.40%</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -9495,13 +9873,16 @@
       <c r="O157" t="n">
         <v>2</v>
       </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>40.77M</t>
-        </is>
+      <c r="P157" t="n">
+        <v>40770000</v>
       </c>
       <c r="Q157" t="n">
         <v>0</v>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>-4.70%</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -9556,13 +9937,16 @@
       <c r="O158" t="n">
         <v>2</v>
       </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>15.31M</t>
-        </is>
+      <c r="P158" t="n">
+        <v>15310000</v>
       </c>
       <c r="Q158" t="n">
         <v>0</v>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>-46.30%</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -9619,13 +10003,16 @@
       <c r="O159" t="n">
         <v>1</v>
       </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>4.69M</t>
-        </is>
+      <c r="P159" t="n">
+        <v>4690000</v>
       </c>
       <c r="Q159" t="n">
         <v>0</v>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>7.50%</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -9680,13 +10067,16 @@
       <c r="O160" t="n">
         <v>0</v>
       </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>75.15B</t>
-        </is>
+      <c r="P160" t="n">
+        <v>75150000000</v>
       </c>
       <c r="Q160" t="n">
         <v>0</v>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>11.40%</t>
+        </is>
       </c>
     </row>
     <row r="161">
@@ -9733,12 +10123,11 @@
       <c r="O161" t="n">
         <v>145</v>
       </c>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>40k</t>
-        </is>
+      <c r="P161" t="n">
+        <v>40000</v>
       </c>
       <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9792,13 +10181,16 @@
       <c r="O162" t="n">
         <v>76</v>
       </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>1.23M</t>
-        </is>
+      <c r="P162" t="n">
+        <v>1230000</v>
       </c>
       <c r="Q162" t="n">
         <v>-0</v>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>437.30%</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -9853,13 +10245,16 @@
       <c r="O163" t="n">
         <v>2</v>
       </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>50.41M</t>
-        </is>
+      <c r="P163" t="n">
+        <v>50410000</v>
       </c>
       <c r="Q163" t="n">
         <v>0</v>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>-6.20%</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -9916,14 +10311,17 @@
       <c r="O164" t="n">
         <v>21</v>
       </c>
-      <c r="P164" t="inlineStr">
-        <is>
-          <t>9.59M</t>
-        </is>
+      <c r="P164" t="n">
+        <v>9590000</v>
       </c>
       <c r="Q164" t="n">
         <v>-0</v>
       </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>7,608.20%</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9979,13 +10377,16 @@
       <c r="O165" t="n">
         <v>-0</v>
       </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>14.4M</t>
-        </is>
+      <c r="P165" t="n">
+        <v>14400000</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>-3.70%</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -10040,13 +10441,16 @@
       <c r="O166" t="n">
         <v>2</v>
       </c>
-      <c r="P166" t="inlineStr">
-        <is>
-          <t>22.52M</t>
-        </is>
+      <c r="P166" t="n">
+        <v>22520000</v>
       </c>
       <c r="Q166" t="n">
         <v>0</v>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>7.00%</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -10103,6 +10507,11 @@
       <c r="Q167" t="n">
         <v>-0</v>
       </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>30.90%</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10152,14 +10561,13 @@
       <c r="O168" t="n">
         <v>8</v>
       </c>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>87.62k</t>
-        </is>
+      <c r="P168" t="n">
+        <v>87620</v>
       </c>
       <c r="Q168" t="n">
         <v>-0</v>
       </c>
+      <c r="R168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10213,14 +10621,17 @@
       <c r="O169" t="n">
         <v>0</v>
       </c>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>111.3M</t>
-        </is>
+      <c r="P169" t="n">
+        <v>111300000</v>
       </c>
       <c r="Q169" t="n">
         <v>-0</v>
       </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>68.60%</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10276,13 +10687,16 @@
       <c r="O170" t="n">
         <v>21</v>
       </c>
-      <c r="P170" t="inlineStr">
-        <is>
-          <t>400k</t>
-        </is>
+      <c r="P170" t="n">
+        <v>400000</v>
       </c>
       <c r="Q170" t="n">
         <v>0</v>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>-23.90%</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -10333,13 +10747,16 @@
       <c r="O171" t="n">
         <v>5</v>
       </c>
-      <c r="P171" t="inlineStr">
-        <is>
-          <t>3.09M</t>
-        </is>
+      <c r="P171" t="n">
+        <v>3090000</v>
       </c>
       <c r="Q171" t="n">
         <v>0</v>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>-14.40%</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -10394,14 +10811,17 @@
       <c r="O172" t="n">
         <v>0</v>
       </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>38.05B</t>
-        </is>
+      <c r="P172" t="n">
+        <v>38050000000</v>
       </c>
       <c r="Q172" t="n">
         <v>-2</v>
       </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>-45.20%</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10449,14 +10869,13 @@
       <c r="O173" t="n">
         <v>0</v>
       </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>125.53k</t>
-        </is>
+      <c r="P173" t="n">
+        <v>125530</v>
       </c>
       <c r="Q173" t="n">
         <v>-0</v>
       </c>
+      <c r="R173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10508,13 +10927,16 @@
       <c r="O174" t="n">
         <v>24</v>
       </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>178k</t>
-        </is>
+      <c r="P174" t="n">
+        <v>178000</v>
       </c>
       <c r="Q174" t="n">
         <v>86</v>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>-10.00%</t>
+        </is>
       </c>
     </row>
     <row r="175">
@@ -10567,6 +10989,11 @@
       <c r="Q175" t="n">
         <v>-0</v>
       </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>681.80%</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10622,13 +11049,16 @@
       <c r="O176" t="n">
         <v>3</v>
       </c>
-      <c r="P176" t="inlineStr">
-        <is>
-          <t>4.41M</t>
-        </is>
+      <c r="P176" t="n">
+        <v>4410000</v>
       </c>
       <c r="Q176" t="n">
         <v>-0</v>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>-44.20%</t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -10683,13 +11113,16 @@
       <c r="O177" t="n">
         <v>12</v>
       </c>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>606.5k</t>
-        </is>
+      <c r="P177" t="n">
+        <v>606500</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>77.10%</t>
+        </is>
       </c>
     </row>
     <row r="178">
@@ -10744,6 +11177,7 @@
       <c r="Q178" t="n">
         <v>-15</v>
       </c>
+      <c r="R178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10791,12 +11225,15 @@
       <c r="O179" t="n">
         <v>4</v>
       </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>496k</t>
-        </is>
+      <c r="P179" t="n">
+        <v>496000</v>
       </c>
       <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>5.10%</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10846,13 +11283,16 @@
       <c r="O180" t="n">
         <v>1</v>
       </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>51.82B</t>
-        </is>
+      <c r="P180" t="n">
+        <v>51820000000</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>-4.30%</t>
+        </is>
       </c>
     </row>
     <row r="181">
@@ -10909,13 +11349,16 @@
       <c r="O181" t="n">
         <v>1</v>
       </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>352.33M</t>
-        </is>
+      <c r="P181" t="n">
+        <v>352330000</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>-44.80%</t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -10972,13 +11415,16 @@
       <c r="O182" t="n">
         <v>79</v>
       </c>
-      <c r="P182" t="inlineStr">
-        <is>
-          <t>838k</t>
-        </is>
+      <c r="P182" t="n">
+        <v>838000</v>
       </c>
       <c r="Q182" t="n">
         <v>-0</v>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>-9.70%</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -11035,6 +11481,11 @@
       <c r="Q183" t="n">
         <v>-1</v>
       </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>416,066.70%</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11088,13 +11539,16 @@
       <c r="O184" t="n">
         <v>1</v>
       </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>14.9M</t>
-        </is>
+      <c r="P184" t="n">
+        <v>14900000</v>
       </c>
       <c r="Q184" t="n">
         <v>-0</v>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>-1.50%</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -11149,14 +11603,13 @@
       <c r="O185" t="n">
         <v>0</v>
       </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>6.48M</t>
-        </is>
+      <c r="P185" t="n">
+        <v>6480000</v>
       </c>
       <c r="Q185" t="n">
         <v>-0</v>
       </c>
+      <c r="R185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11210,13 +11663,16 @@
       <c r="O186" t="n">
         <v>3</v>
       </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>15.81M</t>
-        </is>
+      <c r="P186" t="n">
+        <v>15810000</v>
       </c>
       <c r="Q186" t="n">
         <v>0</v>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>-24.20%</t>
+        </is>
       </c>
     </row>
     <row r="187">
@@ -11271,13 +11727,16 @@
       <c r="O187" t="n">
         <v>1</v>
       </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>61.59M</t>
-        </is>
+      <c r="P187" t="n">
+        <v>61590000</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>794.20%</t>
+        </is>
       </c>
     </row>
     <row r="188">
@@ -11320,12 +11779,11 @@
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>1.75M</t>
-        </is>
+      <c r="P188" t="n">
+        <v>1750000</v>
       </c>
       <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11379,13 +11837,16 @@
       <c r="O189" t="n">
         <v>-0</v>
       </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>777.43M</t>
-        </is>
+      <c r="P189" t="n">
+        <v>777430000</v>
       </c>
       <c r="Q189" t="n">
         <v>0</v>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>-39.40%</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -11440,13 +11901,16 @@
       <c r="O190" t="n">
         <v>10</v>
       </c>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>764.99k</t>
-        </is>
+      <c r="P190" t="n">
+        <v>764990</v>
       </c>
       <c r="Q190" t="n">
         <v>-0</v>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>1,239.90%</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -11493,12 +11957,15 @@
       <c r="O191" t="n">
         <v>2</v>
       </c>
-      <c r="P191" t="inlineStr">
-        <is>
-          <t>2.03M</t>
-        </is>
+      <c r="P191" t="n">
+        <v>2030000</v>
       </c>
       <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>-40.30%</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11554,6 +12021,11 @@
       <c r="Q192" t="n">
         <v>-1</v>
       </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>-67.90%</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11605,14 +12077,13 @@
       <c r="O193" t="n">
         <v>-3</v>
       </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>90.97k</t>
-        </is>
+      <c r="P193" t="n">
+        <v>90970</v>
       </c>
       <c r="Q193" t="n">
         <v>-0</v>
       </c>
+      <c r="R193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11662,6 +12133,11 @@
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>-12.90%</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11715,13 +12191,16 @@
       <c r="O195" t="n">
         <v>-0</v>
       </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>2.14B</t>
-        </is>
+      <c r="P195" t="n">
+        <v>2140000000</v>
       </c>
       <c r="Q195" t="n">
         <v>-1</v>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>-42.10%</t>
+        </is>
       </c>
     </row>
     <row r="196">
@@ -11776,13 +12255,16 @@
       <c r="O196" t="n">
         <v>-0</v>
       </c>
-      <c r="P196" t="inlineStr">
-        <is>
-          <t>255.63M</t>
-        </is>
+      <c r="P196" t="n">
+        <v>255630000</v>
       </c>
       <c r="Q196" t="n">
         <v>-8</v>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>-28.50%</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -11837,13 +12319,16 @@
       <c r="O197" t="n">
         <v>5</v>
       </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>7.33M</t>
-        </is>
+      <c r="P197" t="n">
+        <v>7330000</v>
       </c>
       <c r="Q197" t="n">
         <v>-0</v>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>57.70%</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -11898,13 +12383,16 @@
       <c r="O198" t="n">
         <v>0</v>
       </c>
-      <c r="P198" t="inlineStr">
-        <is>
-          <t>7.74M</t>
-        </is>
+      <c r="P198" t="n">
+        <v>7740000</v>
       </c>
       <c r="Q198" t="n">
         <v>0</v>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>-5.10%</t>
+        </is>
       </c>
     </row>
     <row r="199">
@@ -11957,6 +12445,7 @@
       <c r="Q199" t="n">
         <v>-0</v>
       </c>
+      <c r="R199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12006,13 +12495,16 @@
       <c r="O200" t="n">
         <v>8</v>
       </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>24.67M</t>
-        </is>
+      <c r="P200" t="n">
+        <v>24670000</v>
       </c>
       <c r="Q200" t="n">
         <v>0</v>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>-20.90%</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -12065,13 +12557,16 @@
       <c r="O201" t="n">
         <v>-6</v>
       </c>
-      <c r="P201" t="inlineStr">
-        <is>
-          <t>146.84k</t>
-        </is>
+      <c r="P201" t="n">
+        <v>146840</v>
       </c>
       <c r="Q201" t="n">
         <v>-0</v>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>63.20%</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -12126,13 +12621,16 @@
       <c r="O202" t="n">
         <v>3</v>
       </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>2.38M</t>
-        </is>
+      <c r="P202" t="n">
+        <v>2380000</v>
       </c>
       <c r="Q202" t="n">
         <v>-1</v>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>7.80%</t>
+        </is>
       </c>
     </row>
     <row r="203">
@@ -12183,13 +12681,16 @@
       <c r="O203" t="n">
         <v>7</v>
       </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>1.69B</t>
-        </is>
+      <c r="P203" t="n">
+        <v>1690000000</v>
       </c>
       <c r="Q203" t="n">
         <v>4</v>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>37.10%</t>
+        </is>
       </c>
     </row>
     <row r="204">
@@ -12242,13 +12743,16 @@
       <c r="O204" t="n">
         <v>4</v>
       </c>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>62.02M</t>
-        </is>
+      <c r="P204" t="n">
+        <v>62020000</v>
       </c>
       <c r="Q204" t="n">
         <v>0</v>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>-22.30%</t>
+        </is>
       </c>
     </row>
     <row r="205">
@@ -12299,6 +12803,7 @@
       <c r="Q205" t="n">
         <v>-8</v>
       </c>
+      <c r="R205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12346,6 +12851,11 @@
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr"/>
       <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>1.70%</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12399,13 +12909,16 @@
       <c r="O207" t="n">
         <v>0</v>
       </c>
-      <c r="P207" t="inlineStr">
-        <is>
-          <t>7.16M</t>
-        </is>
+      <c r="P207" t="n">
+        <v>7160000</v>
       </c>
       <c r="Q207" t="n">
         <v>-10</v>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>-28.50%</t>
+        </is>
       </c>
     </row>
     <row r="208">
@@ -12460,13 +12973,16 @@
       <c r="O208" t="n">
         <v>9</v>
       </c>
-      <c r="P208" t="inlineStr">
-        <is>
-          <t>197.76k</t>
-        </is>
+      <c r="P208" t="n">
+        <v>197760</v>
       </c>
       <c r="Q208" t="n">
         <v>0</v>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>86.20%</t>
+        </is>
       </c>
     </row>
     <row r="209">
@@ -12515,12 +13031,15 @@
       <c r="O209" t="n">
         <v>-1</v>
       </c>
-      <c r="P209" t="inlineStr">
-        <is>
-          <t>611.28k</t>
-        </is>
+      <c r="P209" t="n">
+        <v>611280</v>
       </c>
       <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>-0.90%</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12570,14 +13089,13 @@
       <c r="O210" t="n">
         <v>3</v>
       </c>
-      <c r="P210" t="inlineStr">
-        <is>
-          <t>101.1M</t>
-        </is>
+      <c r="P210" t="n">
+        <v>101100000</v>
       </c>
       <c r="Q210" t="n">
         <v>-0</v>
       </c>
+      <c r="R210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12625,12 +13143,15 @@
       <c r="O211" t="n">
         <v>-0</v>
       </c>
-      <c r="P211" t="inlineStr">
-        <is>
-          <t>14.74M</t>
-        </is>
+      <c r="P211" t="n">
+        <v>14740000</v>
       </c>
       <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>3.40%</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12684,13 +13205,16 @@
       <c r="O212" t="n">
         <v>1</v>
       </c>
-      <c r="P212" t="inlineStr">
-        <is>
-          <t>24.38M</t>
-        </is>
+      <c r="P212" t="n">
+        <v>24380000</v>
       </c>
       <c r="Q212" t="n">
         <v>0</v>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>7.70%</t>
+        </is>
       </c>
     </row>
     <row r="213">
@@ -12741,13 +13265,16 @@
       <c r="O213" t="n">
         <v>7</v>
       </c>
-      <c r="P213" t="inlineStr">
-        <is>
-          <t>666.13k</t>
-        </is>
+      <c r="P213" t="n">
+        <v>666130</v>
       </c>
       <c r="Q213" t="n">
         <v>0</v>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>-12.60%</t>
+        </is>
       </c>
     </row>
     <row r="214">
@@ -12802,13 +13329,16 @@
       <c r="O214" t="n">
         <v>1</v>
       </c>
-      <c r="P214" t="inlineStr">
-        <is>
-          <t>56.86B</t>
-        </is>
+      <c r="P214" t="n">
+        <v>56860000000</v>
       </c>
       <c r="Q214" t="n">
         <v>-12</v>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>-11.20%</t>
+        </is>
       </c>
     </row>
     <row r="215">
@@ -12859,12 +13389,11 @@
       <c r="O215" t="n">
         <v>-0</v>
       </c>
-      <c r="P215" t="inlineStr">
-        <is>
-          <t>62.19M</t>
-        </is>
+      <c r="P215" t="n">
+        <v>62190000</v>
       </c>
       <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12918,14 +13447,17 @@
       <c r="O216" t="n">
         <v>257</v>
       </c>
-      <c r="P216" t="inlineStr">
-        <is>
-          <t>420k</t>
-        </is>
+      <c r="P216" t="n">
+        <v>420000</v>
       </c>
       <c r="Q216" t="n">
         <v>-0</v>
       </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>-70.50%</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12981,13 +13513,16 @@
       <c r="O217" t="n">
         <v>2</v>
       </c>
-      <c r="P217" t="inlineStr">
-        <is>
-          <t>9.82M</t>
-        </is>
+      <c r="P217" t="n">
+        <v>9820000</v>
       </c>
       <c r="Q217" t="n">
         <v>-0</v>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>-35.60%</t>
+        </is>
       </c>
     </row>
     <row r="218">
@@ -13042,13 +13577,16 @@
       <c r="O218" t="n">
         <v>2</v>
       </c>
-      <c r="P218" t="inlineStr">
-        <is>
-          <t>11.67M</t>
-        </is>
+      <c r="P218" t="n">
+        <v>11670000</v>
       </c>
       <c r="Q218" t="n">
         <v>3</v>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>452.90%</t>
+        </is>
       </c>
     </row>
     <row r="219">
@@ -13103,13 +13641,16 @@
       <c r="O219" t="n">
         <v>3</v>
       </c>
-      <c r="P219" t="inlineStr">
-        <is>
-          <t>401.98k</t>
-        </is>
+      <c r="P219" t="n">
+        <v>401980</v>
       </c>
       <c r="Q219" t="n">
         <v>2</v>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>-14.20%</t>
+        </is>
       </c>
     </row>
     <row r="220">
@@ -13162,13 +13703,16 @@
       <c r="O220" t="n">
         <v>-1</v>
       </c>
-      <c r="P220" t="inlineStr">
-        <is>
-          <t>13.09M</t>
-        </is>
+      <c r="P220" t="n">
+        <v>13090000</v>
       </c>
       <c r="Q220" t="n">
         <v>-0</v>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>-16.30%</t>
+        </is>
       </c>
     </row>
     <row r="221">
@@ -13219,13 +13763,16 @@
       <c r="O221" t="n">
         <v>-1</v>
       </c>
-      <c r="P221" t="inlineStr">
-        <is>
-          <t>1.1M</t>
-        </is>
+      <c r="P221" t="n">
+        <v>1100000</v>
       </c>
       <c r="Q221" t="n">
         <v>-0</v>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>29.00%</t>
+        </is>
       </c>
     </row>
     <row r="222">
@@ -13284,6 +13831,11 @@
       <c r="Q222" t="n">
         <v>-1</v>
       </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>-41.70%</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -13339,13 +13891,16 @@
       <c r="O223" t="n">
         <v>1</v>
       </c>
-      <c r="P223" t="inlineStr">
-        <is>
-          <t>21.64M</t>
-        </is>
+      <c r="P223" t="n">
+        <v>21640000</v>
       </c>
       <c r="Q223" t="n">
         <v>0</v>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>23.90%</t>
+        </is>
       </c>
     </row>
     <row r="224">
@@ -13400,13 +13955,16 @@
       <c r="O224" t="n">
         <v>0</v>
       </c>
-      <c r="P224" t="inlineStr">
-        <is>
-          <t>191.82M</t>
-        </is>
+      <c r="P224" t="n">
+        <v>191820000</v>
       </c>
       <c r="Q224" t="n">
         <v>0</v>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>84.90%</t>
+        </is>
       </c>
     </row>
     <row r="225">
@@ -13455,14 +14013,13 @@
       <c r="O225" t="n">
         <v>40</v>
       </c>
-      <c r="P225" t="inlineStr">
-        <is>
-          <t>40k</t>
-        </is>
+      <c r="P225" t="n">
+        <v>40000</v>
       </c>
       <c r="Q225" t="n">
         <v>-0</v>
       </c>
+      <c r="R225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -13516,13 +14073,16 @@
       <c r="O226" t="n">
         <v>0</v>
       </c>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t>2.39B</t>
-        </is>
+      <c r="P226" t="n">
+        <v>2390000000</v>
       </c>
       <c r="Q226" t="n">
         <v>-0</v>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>-40.80%</t>
+        </is>
       </c>
     </row>
     <row r="227">
@@ -13573,13 +14133,16 @@
       <c r="O227" t="n">
         <v>2</v>
       </c>
-      <c r="P227" t="inlineStr">
-        <is>
-          <t>24.74M</t>
-        </is>
+      <c r="P227" t="n">
+        <v>24740000</v>
       </c>
       <c r="Q227" t="n">
         <v>0</v>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
       </c>
     </row>
     <row r="228">
@@ -13636,13 +14199,16 @@
       <c r="O228" t="n">
         <v>-0</v>
       </c>
-      <c r="P228" t="inlineStr">
-        <is>
-          <t>114.86M</t>
-        </is>
+      <c r="P228" t="n">
+        <v>114860000</v>
       </c>
       <c r="Q228" t="n">
         <v>0</v>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>5.50%</t>
+        </is>
       </c>
     </row>
     <row r="229">
@@ -13697,13 +14263,16 @@
       <c r="O229" t="n">
         <v>0</v>
       </c>
-      <c r="P229" t="inlineStr">
-        <is>
-          <t>42.92M</t>
-        </is>
+      <c r="P229" t="n">
+        <v>42920000</v>
       </c>
       <c r="Q229" t="n">
         <v>0</v>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>93.90%</t>
+        </is>
       </c>
     </row>
     <row r="230">
@@ -13756,13 +14325,16 @@
       <c r="O230" t="n">
         <v>0</v>
       </c>
-      <c r="P230" t="inlineStr">
-        <is>
-          <t>6.93B</t>
-        </is>
+      <c r="P230" t="n">
+        <v>6930000000</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>25.40%</t>
+        </is>
       </c>
     </row>
     <row r="231">
@@ -13813,13 +14385,16 @@
       <c r="O231" t="n">
         <v>1</v>
       </c>
-      <c r="P231" t="inlineStr">
-        <is>
-          <t>11.06M</t>
-        </is>
+      <c r="P231" t="n">
+        <v>11060000</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>32.30%</t>
+        </is>
       </c>
     </row>
     <row r="232">
@@ -13870,12 +14445,15 @@
       <c r="O232" t="n">
         <v>19</v>
       </c>
-      <c r="P232" t="inlineStr">
-        <is>
-          <t>258.43k</t>
-        </is>
+      <c r="P232" t="n">
+        <v>258430</v>
       </c>
       <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>-38.20%</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13929,13 +14507,16 @@
       <c r="O233" t="n">
         <v>15</v>
       </c>
-      <c r="P233" t="inlineStr">
-        <is>
-          <t>500.66k</t>
-        </is>
+      <c r="P233" t="n">
+        <v>500660</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>7.60%</t>
+        </is>
       </c>
     </row>
     <row r="234">
@@ -13984,12 +14565,15 @@
       <c r="O234" t="n">
         <v>1</v>
       </c>
-      <c r="P234" t="inlineStr">
-        <is>
-          <t>386.34k</t>
-        </is>
+      <c r="P234" t="n">
+        <v>386340</v>
       </c>
       <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>67.80%</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -14043,14 +14627,13 @@
       <c r="O235" t="n">
         <v>-1</v>
       </c>
-      <c r="P235" t="inlineStr">
-        <is>
-          <t>100.74M</t>
-        </is>
+      <c r="P235" t="n">
+        <v>100740000</v>
       </c>
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -14106,13 +14689,16 @@
       <c r="O236" t="n">
         <v>1</v>
       </c>
-      <c r="P236" t="inlineStr">
-        <is>
-          <t>5.36M</t>
-        </is>
+      <c r="P236" t="n">
+        <v>5360000</v>
       </c>
       <c r="Q236" t="n">
         <v>0</v>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>10.60%</t>
+        </is>
       </c>
     </row>
     <row r="237">
@@ -14163,6 +14749,7 @@
       <c r="Q237" t="n">
         <v>1</v>
       </c>
+      <c r="R237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -14216,13 +14803,16 @@
       <c r="O238" t="n">
         <v>3</v>
       </c>
-      <c r="P238" t="inlineStr">
-        <is>
-          <t>981.25k</t>
-        </is>
+      <c r="P238" t="n">
+        <v>981250</v>
       </c>
       <c r="Q238" t="n">
         <v>-0</v>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
       </c>
     </row>
     <row r="239">
@@ -14277,14 +14867,17 @@
       <c r="O239" t="n">
         <v>4</v>
       </c>
-      <c r="P239" t="inlineStr">
-        <is>
-          <t>2.3M</t>
-        </is>
+      <c r="P239" t="n">
+        <v>2300000</v>
       </c>
       <c r="Q239" t="n">
         <v>-1</v>
       </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>-14.80%</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -14340,14 +14933,17 @@
       <c r="O240" t="n">
         <v>113</v>
       </c>
-      <c r="P240" t="inlineStr">
-        <is>
-          <t>342k</t>
-        </is>
+      <c r="P240" t="n">
+        <v>342000</v>
       </c>
       <c r="Q240" t="n">
         <v>-0</v>
       </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>33.20%</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -14401,14 +14997,13 @@
       <c r="O241" t="n">
         <v>2</v>
       </c>
-      <c r="P241" t="inlineStr">
-        <is>
-          <t>4.27M</t>
-        </is>
+      <c r="P241" t="n">
+        <v>4270000</v>
       </c>
       <c r="Q241" t="n">
         <v>-2</v>
       </c>
+      <c r="R241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -14460,6 +15055,7 @@
       <c r="Q242" t="n">
         <v>-0</v>
       </c>
+      <c r="R242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -14511,14 +15107,13 @@
       <c r="O243" t="n">
         <v>7</v>
       </c>
-      <c r="P243" t="inlineStr">
-        <is>
-          <t>3.47M</t>
-        </is>
+      <c r="P243" t="n">
+        <v>3470000</v>
       </c>
       <c r="Q243" t="n">
         <v>-1</v>
       </c>
+      <c r="R243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -14572,6 +15167,11 @@
       <c r="Q244" t="n">
         <v>-0</v>
       </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>-75.10%</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -14621,12 +15221,15 @@
       <c r="O245" t="n">
         <v>3</v>
       </c>
-      <c r="P245" t="inlineStr">
-        <is>
-          <t>440k</t>
-        </is>
+      <c r="P245" t="n">
+        <v>440000</v>
       </c>
       <c r="Q245" t="inlineStr"/>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>22.80%</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -14682,13 +15285,16 @@
       <c r="O246" t="n">
         <v>-0</v>
       </c>
-      <c r="P246" t="inlineStr">
-        <is>
-          <t>23.4M</t>
-        </is>
+      <c r="P246" t="n">
+        <v>23400000</v>
       </c>
       <c r="Q246" t="n">
         <v>-0</v>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>25.40%</t>
+        </is>
       </c>
     </row>
     <row r="247">
@@ -14741,6 +15347,7 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
+      <c r="R247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -14794,13 +15401,16 @@
       <c r="O248" t="n">
         <v>2</v>
       </c>
-      <c r="P248" t="inlineStr">
-        <is>
-          <t>604.67k</t>
-        </is>
+      <c r="P248" t="n">
+        <v>604670</v>
       </c>
       <c r="Q248" t="n">
         <v>4</v>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>11.20%</t>
+        </is>
       </c>
     </row>
     <row r="249">
@@ -14853,6 +15463,7 @@
       <c r="Q249" t="n">
         <v>-18</v>
       </c>
+      <c r="R249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -14898,14 +15509,13 @@
       <c r="O250" t="n">
         <v>-0</v>
       </c>
-      <c r="P250" t="inlineStr">
-        <is>
-          <t>541.14k</t>
-        </is>
+      <c r="P250" t="n">
+        <v>541140</v>
       </c>
       <c r="Q250" t="n">
         <v>-0</v>
       </c>
+      <c r="R250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -14959,13 +15569,16 @@
       <c r="O251" t="n">
         <v>-2</v>
       </c>
-      <c r="P251" t="inlineStr">
-        <is>
-          <t>1.11M</t>
-        </is>
+      <c r="P251" t="n">
+        <v>1110000</v>
       </c>
       <c r="Q251" t="n">
         <v>-0</v>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>-39.80%</t>
+        </is>
       </c>
     </row>
     <row r="252">
@@ -15014,6 +15627,11 @@
       <c r="O252" t="inlineStr"/>
       <c r="P252" t="inlineStr"/>
       <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>9.60%</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -15063,14 +15681,13 @@
       <c r="O253" t="n">
         <v>-2</v>
       </c>
-      <c r="P253" t="inlineStr">
-        <is>
-          <t>19.29B</t>
-        </is>
+      <c r="P253" t="n">
+        <v>19290000000</v>
       </c>
       <c r="Q253" t="n">
         <v>-0</v>
       </c>
+      <c r="R253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -15120,13 +15737,16 @@
       <c r="O254" t="n">
         <v>0</v>
       </c>
-      <c r="P254" t="inlineStr">
-        <is>
-          <t>302.15M</t>
-        </is>
+      <c r="P254" t="n">
+        <v>302150000</v>
       </c>
       <c r="Q254" t="n">
         <v>0</v>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>68.60%</t>
+        </is>
       </c>
     </row>
     <row r="255">
@@ -15183,13 +15803,16 @@
       <c r="O255" t="n">
         <v>11</v>
       </c>
-      <c r="P255" t="inlineStr">
-        <is>
-          <t>16.52M</t>
-        </is>
+      <c r="P255" t="n">
+        <v>16520000</v>
       </c>
       <c r="Q255" t="n">
         <v>-1</v>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>20.20%</t>
+        </is>
       </c>
     </row>
     <row r="256">
@@ -15242,14 +15865,13 @@
       <c r="O256" t="n">
         <v>-15</v>
       </c>
-      <c r="P256" t="inlineStr">
-        <is>
-          <t>20k</t>
-        </is>
+      <c r="P256" t="n">
+        <v>20000</v>
       </c>
       <c r="Q256" t="n">
         <v>7</v>
       </c>
+      <c r="R256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -15303,13 +15925,16 @@
       <c r="O257" t="n">
         <v>-1</v>
       </c>
-      <c r="P257" t="inlineStr">
-        <is>
-          <t>19.57M</t>
-        </is>
+      <c r="P257" t="n">
+        <v>19570000</v>
       </c>
       <c r="Q257" t="n">
         <v>-2</v>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>-26.40%</t>
+        </is>
       </c>
     </row>
     <row r="258">
@@ -15360,13 +15985,16 @@
       <c r="O258" t="n">
         <v>1</v>
       </c>
-      <c r="P258" t="inlineStr">
-        <is>
-          <t>14.71M</t>
-        </is>
+      <c r="P258" t="n">
+        <v>14710000</v>
       </c>
       <c r="Q258" t="n">
         <v>-0</v>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>104.00%</t>
+        </is>
       </c>
     </row>
     <row r="259">
@@ -15421,14 +16049,17 @@
       <c r="O259" t="n">
         <v>1</v>
       </c>
-      <c r="P259" t="inlineStr">
-        <is>
-          <t>12.71B</t>
-        </is>
+      <c r="P259" t="n">
+        <v>12710000000</v>
       </c>
       <c r="Q259" t="n">
         <v>2</v>
       </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>24.10%</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -15484,13 +16115,16 @@
       <c r="O260" t="n">
         <v>-0</v>
       </c>
-      <c r="P260" t="inlineStr">
-        <is>
-          <t>143.65M</t>
-        </is>
+      <c r="P260" t="n">
+        <v>143650000</v>
       </c>
       <c r="Q260" t="n">
         <v>0</v>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>-25.90%</t>
+        </is>
       </c>
     </row>
     <row r="261">
@@ -15542,6 +16176,11 @@
       <c r="P261" t="inlineStr"/>
       <c r="Q261" t="n">
         <v>-0</v>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>6.90%</t>
+        </is>
       </c>
     </row>
     <row r="262">
@@ -15590,6 +16229,7 @@
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr"/>
       <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -15643,13 +16283,16 @@
       <c r="O263" t="n">
         <v>0</v>
       </c>
-      <c r="P263" t="inlineStr">
-        <is>
-          <t>1.35B</t>
-        </is>
+      <c r="P263" t="n">
+        <v>1350000000</v>
       </c>
       <c r="Q263" t="n">
         <v>0</v>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>9.00%</t>
+        </is>
       </c>
     </row>
     <row r="264">
@@ -15704,6 +16347,7 @@
       <c r="Q264" t="n">
         <v>14</v>
       </c>
+      <c r="R264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -15757,6 +16401,7 @@
       <c r="Q265" t="n">
         <v>-0</v>
       </c>
+      <c r="R265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -15812,6 +16457,11 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>118.50%</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -15865,13 +16515,16 @@
       <c r="O267" t="n">
         <v>-0</v>
       </c>
-      <c r="P267" t="inlineStr">
-        <is>
-          <t>380.47M</t>
-        </is>
+      <c r="P267" t="n">
+        <v>380470000</v>
       </c>
       <c r="Q267" t="n">
         <v>-138</v>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>-3.50%</t>
+        </is>
       </c>
     </row>
     <row r="268">
@@ -15920,6 +16573,7 @@
       <c r="Q268" t="n">
         <v>-0</v>
       </c>
+      <c r="R268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -15969,13 +16623,16 @@
       <c r="O269" t="n">
         <v>-4</v>
       </c>
-      <c r="P269" t="inlineStr">
-        <is>
-          <t>13.7B</t>
-        </is>
+      <c r="P269" t="n">
+        <v>13700000000</v>
       </c>
       <c r="Q269" t="n">
         <v>0</v>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>22.80%</t>
+        </is>
       </c>
     </row>
     <row r="270">
@@ -16028,13 +16685,16 @@
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
-      <c r="P270" t="inlineStr">
-        <is>
-          <t>3M</t>
-        </is>
+      <c r="P270" t="n">
+        <v>3000000</v>
       </c>
       <c r="Q270" t="n">
         <v>-37</v>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>6.50%</t>
+        </is>
       </c>
     </row>
     <row r="271">
@@ -16089,6 +16749,11 @@
       <c r="Q271" t="n">
         <v>2</v>
       </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>-52.00%</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -16142,13 +16807,16 @@
       <c r="O272" t="n">
         <v>69</v>
       </c>
-      <c r="P272" t="inlineStr">
-        <is>
-          <t>78.73k</t>
-        </is>
+      <c r="P272" t="n">
+        <v>78730</v>
       </c>
       <c r="Q272" t="n">
         <v>0</v>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>-17.70%</t>
+        </is>
       </c>
     </row>
     <row r="273">
@@ -16203,6 +16871,7 @@
       <c r="Q273" t="n">
         <v>-1</v>
       </c>
+      <c r="R273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -16256,6 +16925,7 @@
       <c r="Q274" t="n">
         <v>-2</v>
       </c>
+      <c r="R274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -16309,6 +16979,11 @@
       <c r="Q275" t="n">
         <v>-12</v>
       </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>207.30%</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -16362,13 +17037,16 @@
       <c r="O276" t="n">
         <v>-0</v>
       </c>
-      <c r="P276" t="inlineStr">
-        <is>
-          <t>11.73M</t>
-        </is>
+      <c r="P276" t="n">
+        <v>11730000</v>
       </c>
       <c r="Q276" t="n">
         <v>-1</v>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>-19.70%</t>
+        </is>
       </c>
     </row>
     <row r="277">
@@ -16417,12 +17095,15 @@
       <c r="O277" t="n">
         <v>-0</v>
       </c>
-      <c r="P277" t="inlineStr">
-        <is>
-          <t>10.81M</t>
-        </is>
+      <c r="P277" t="n">
+        <v>10810000</v>
       </c>
       <c r="Q277" t="inlineStr"/>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>-21.60%</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -16478,6 +17159,11 @@
       <c r="Q278" t="n">
         <v>-1</v>
       </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>-23.00%</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -16531,6 +17217,7 @@
       <c r="Q279" t="n">
         <v>-11029</v>
       </c>
+      <c r="R279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -16584,13 +17271,16 @@
       <c r="O280" t="n">
         <v>0</v>
       </c>
-      <c r="P280" t="inlineStr">
-        <is>
-          <t>3.59B</t>
-        </is>
+      <c r="P280" t="n">
+        <v>3590000000</v>
       </c>
       <c r="Q280" t="n">
         <v>6</v>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>-20.50%</t>
+        </is>
       </c>
     </row>
     <row r="281">
@@ -16641,14 +17331,13 @@
       <c r="O281" t="n">
         <v>-1</v>
       </c>
-      <c r="P281" t="inlineStr">
-        <is>
-          <t>1.77M</t>
-        </is>
+      <c r="P281" t="n">
+        <v>1770000</v>
       </c>
       <c r="Q281" t="n">
         <v>0</v>
       </c>
+      <c r="R281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -16696,12 +17385,15 @@
       <c r="O282" t="n">
         <v>-1</v>
       </c>
-      <c r="P282" t="inlineStr">
-        <is>
-          <t>887.15k</t>
-        </is>
+      <c r="P282" t="n">
+        <v>887150</v>
       </c>
       <c r="Q282" t="inlineStr"/>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>276.20%</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -16749,12 +17441,15 @@
       <c r="O283" t="n">
         <v>-1</v>
       </c>
-      <c r="P283" t="inlineStr">
-        <is>
-          <t>353.35k</t>
-        </is>
+      <c r="P283" t="n">
+        <v>353350</v>
       </c>
       <c r="Q283" t="inlineStr"/>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>-99.90%</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -16808,14 +17503,13 @@
       <c r="O284" t="n">
         <v>115</v>
       </c>
-      <c r="P284" t="inlineStr">
-        <is>
-          <t>106.71k</t>
-        </is>
+      <c r="P284" t="n">
+        <v>106710</v>
       </c>
       <c r="Q284" t="n">
         <v>-2</v>
       </c>
+      <c r="R284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -16869,13 +17563,16 @@
       <c r="O285" t="n">
         <v>0</v>
       </c>
-      <c r="P285" t="inlineStr">
-        <is>
-          <t>20.67M</t>
-        </is>
+      <c r="P285" t="n">
+        <v>20670000</v>
       </c>
       <c r="Q285" t="n">
         <v>-20</v>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>-56.40%</t>
+        </is>
       </c>
     </row>
     <row r="286">
@@ -16926,12 +17623,15 @@
       <c r="O286" t="n">
         <v>-0</v>
       </c>
-      <c r="P286" t="inlineStr">
-        <is>
-          <t>2.92M</t>
-        </is>
+      <c r="P286" t="n">
+        <v>2920000</v>
       </c>
       <c r="Q286" t="inlineStr"/>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>-96.50%</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -16979,6 +17679,7 @@
       <c r="Q287" t="n">
         <v>-1</v>
       </c>
+      <c r="R287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -17030,13 +17731,16 @@
       <c r="O288" t="n">
         <v>1</v>
       </c>
-      <c r="P288" t="inlineStr">
-        <is>
-          <t>2.24M</t>
-        </is>
+      <c r="P288" t="n">
+        <v>2240000</v>
       </c>
       <c r="Q288" t="n">
         <v>-10</v>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
       </c>
     </row>
     <row r="289">
@@ -17087,13 +17791,16 @@
       <c r="O289" t="n">
         <v>-0</v>
       </c>
-      <c r="P289" t="inlineStr">
-        <is>
-          <t>6.13M</t>
-        </is>
+      <c r="P289" t="n">
+        <v>6130000</v>
       </c>
       <c r="Q289" t="n">
         <v>-1</v>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>-78.00%</t>
+        </is>
       </c>
     </row>
     <row r="290">
@@ -17148,13 +17855,16 @@
       <c r="O290" t="n">
         <v>-1</v>
       </c>
-      <c r="P290" t="inlineStr">
-        <is>
-          <t>5.71M</t>
-        </is>
+      <c r="P290" t="n">
+        <v>5710000</v>
       </c>
       <c r="Q290" t="n">
         <v>-0</v>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>156.90%</t>
+        </is>
       </c>
     </row>
     <row r="291">
@@ -17209,14 +17919,13 @@
       <c r="O291" t="n">
         <v>-0</v>
       </c>
-      <c r="P291" t="inlineStr">
-        <is>
-          <t>4.96M</t>
-        </is>
+      <c r="P291" t="n">
+        <v>4960000</v>
       </c>
       <c r="Q291" t="n">
         <v>-6</v>
       </c>
+      <c r="R291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -17270,6 +17979,7 @@
       <c r="Q292" t="n">
         <v>-2</v>
       </c>
+      <c r="R292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -17319,14 +18029,13 @@
       <c r="O293" t="n">
         <v>0</v>
       </c>
-      <c r="P293" t="inlineStr">
-        <is>
-          <t>4.54M</t>
-        </is>
+      <c r="P293" t="n">
+        <v>4540000</v>
       </c>
       <c r="Q293" t="n">
         <v>0</v>
       </c>
+      <c r="R293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -17376,6 +18085,11 @@
       <c r="O294" t="inlineStr"/>
       <c r="P294" t="inlineStr"/>
       <c r="Q294" t="inlineStr"/>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>28.70%</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -17425,13 +18139,16 @@
       <c r="O295" t="n">
         <v>-0</v>
       </c>
-      <c r="P295" t="inlineStr">
-        <is>
-          <t>21.2M</t>
-        </is>
+      <c r="P295" t="n">
+        <v>21200000</v>
       </c>
       <c r="Q295" t="n">
         <v>0</v>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>61.80%</t>
+        </is>
       </c>
     </row>
     <row r="296">
@@ -17484,14 +18201,13 @@
       <c r="O296" t="n">
         <v>-2</v>
       </c>
-      <c r="P296" t="inlineStr">
-        <is>
-          <t>3.87M</t>
-        </is>
+      <c r="P296" t="n">
+        <v>3870000</v>
       </c>
       <c r="Q296" t="n">
         <v>-2</v>
       </c>
+      <c r="R296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -17541,14 +18257,13 @@
       <c r="O297" t="n">
         <v>0</v>
       </c>
-      <c r="P297" t="inlineStr">
-        <is>
-          <t>13.69M</t>
-        </is>
+      <c r="P297" t="n">
+        <v>13690000</v>
       </c>
       <c r="Q297" t="n">
         <v>0</v>
       </c>
+      <c r="R297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -17596,12 +18311,15 @@
       <c r="O298" t="n">
         <v>0</v>
       </c>
-      <c r="P298" t="inlineStr">
-        <is>
-          <t>8.68M</t>
-        </is>
+      <c r="P298" t="n">
+        <v>8680000</v>
       </c>
       <c r="Q298" t="inlineStr"/>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>27.40%</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -17653,13 +18371,16 @@
       <c r="O299" t="n">
         <v>0</v>
       </c>
-      <c r="P299" t="inlineStr">
-        <is>
-          <t>126.78M</t>
-        </is>
+      <c r="P299" t="n">
+        <v>126780000</v>
       </c>
       <c r="Q299" t="n">
         <v>-0</v>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>-4.00%</t>
+        </is>
       </c>
     </row>
     <row r="300">
@@ -17714,13 +18435,16 @@
       <c r="O300" t="n">
         <v>4</v>
       </c>
-      <c r="P300" t="inlineStr">
-        <is>
-          <t>6.33M</t>
-        </is>
+      <c r="P300" t="n">
+        <v>6330000</v>
       </c>
       <c r="Q300" t="n">
         <v>0</v>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>-50.60%</t>
+        </is>
       </c>
     </row>
     <row r="301">
@@ -17775,14 +18499,13 @@
       <c r="O301" t="n">
         <v>8</v>
       </c>
-      <c r="P301" t="inlineStr">
-        <is>
-          <t>168.2k</t>
-        </is>
+      <c r="P301" t="n">
+        <v>168200</v>
       </c>
       <c r="Q301" t="n">
         <v>-0</v>
       </c>
+      <c r="R301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -17832,6 +18555,7 @@
       <c r="Q302" t="n">
         <v>-0</v>
       </c>
+      <c r="R302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -17881,13 +18605,16 @@
       <c r="O303" t="n">
         <v>-0</v>
       </c>
-      <c r="P303" t="inlineStr">
-        <is>
-          <t>6.79B</t>
-        </is>
+      <c r="P303" t="n">
+        <v>6790000000</v>
       </c>
       <c r="Q303" t="n">
         <v>-3</v>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>-40.00%</t>
+        </is>
       </c>
     </row>
     <row r="304">
@@ -17940,14 +18667,13 @@
       <c r="O304" t="n">
         <v>-3</v>
       </c>
-      <c r="P304" t="inlineStr">
-        <is>
-          <t>1.1M</t>
-        </is>
+      <c r="P304" t="n">
+        <v>1100000</v>
       </c>
       <c r="Q304" t="n">
         <v>-24</v>
       </c>
+      <c r="R304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -18003,13 +18729,16 @@
       <c r="O305" t="n">
         <v>1</v>
       </c>
-      <c r="P305" t="inlineStr">
-        <is>
-          <t>135.14M</t>
-        </is>
+      <c r="P305" t="n">
+        <v>135140000</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>-25.80%</t>
+        </is>
       </c>
     </row>
     <row r="306">
@@ -18064,14 +18793,13 @@
       <c r="O306" t="n">
         <v>9</v>
       </c>
-      <c r="P306" t="inlineStr">
-        <is>
-          <t>65.47k</t>
-        </is>
+      <c r="P306" t="n">
+        <v>65470</v>
       </c>
       <c r="Q306" t="n">
         <v>0</v>
       </c>
+      <c r="R306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -18125,13 +18853,16 @@
       <c r="O307" t="n">
         <v>-0</v>
       </c>
-      <c r="P307" t="inlineStr">
-        <is>
-          <t>11.07M</t>
-        </is>
+      <c r="P307" t="n">
+        <v>11070000</v>
       </c>
       <c r="Q307" t="n">
         <v>-77</v>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>68.00%</t>
+        </is>
       </c>
     </row>
     <row r="308">
@@ -18184,13 +18915,16 @@
       <c r="O308" t="n">
         <v>0</v>
       </c>
-      <c r="P308" t="inlineStr">
-        <is>
-          <t>1.44M</t>
-        </is>
+      <c r="P308" t="n">
+        <v>1440000</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>-5.10%</t>
+        </is>
       </c>
     </row>
     <row r="309">
@@ -18239,12 +18973,11 @@
       <c r="O309" t="n">
         <v>-1</v>
       </c>
-      <c r="P309" t="inlineStr">
-        <is>
-          <t>1.44M</t>
-        </is>
+      <c r="P309" t="n">
+        <v>1440000</v>
       </c>
       <c r="Q309" t="inlineStr"/>
+      <c r="R309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -18294,12 +19027,11 @@
       <c r="O310" t="n">
         <v>0</v>
       </c>
-      <c r="P310" t="inlineStr">
-        <is>
-          <t>65k</t>
-        </is>
+      <c r="P310" t="n">
+        <v>65000</v>
       </c>
       <c r="Q310" t="inlineStr"/>
+      <c r="R310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -18349,14 +19081,13 @@
       <c r="O311" t="n">
         <v>-37</v>
       </c>
-      <c r="P311" t="inlineStr">
-        <is>
-          <t>55.61k</t>
-        </is>
+      <c r="P311" t="n">
+        <v>55610</v>
       </c>
       <c r="Q311" t="n">
         <v>-0</v>
       </c>
+      <c r="R311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -18406,13 +19137,16 @@
       <c r="O312" t="n">
         <v>-1</v>
       </c>
-      <c r="P312" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
+      <c r="P312" t="n">
+        <v>1370000</v>
       </c>
       <c r="Q312" t="n">
         <v>-0</v>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>68.00%</t>
+        </is>
       </c>
     </row>
     <row r="313">
@@ -18467,13 +19201,16 @@
       <c r="O313" t="n">
         <v>1</v>
       </c>
-      <c r="P313" t="inlineStr">
-        <is>
-          <t>5.16M</t>
-        </is>
+      <c r="P313" t="n">
+        <v>5160000</v>
       </c>
       <c r="Q313" t="n">
         <v>-6</v>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>-82.50%</t>
+        </is>
       </c>
     </row>
     <row r="314">
@@ -18524,14 +19261,13 @@
       <c r="O314" t="n">
         <v>2</v>
       </c>
-      <c r="P314" t="inlineStr">
-        <is>
-          <t>226.15k</t>
-        </is>
+      <c r="P314" t="n">
+        <v>226150</v>
       </c>
       <c r="Q314" t="n">
         <v>-1184275</v>
       </c>
+      <c r="R314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -18585,13 +19321,16 @@
       <c r="O315" t="n">
         <v>1</v>
       </c>
-      <c r="P315" t="inlineStr">
-        <is>
-          <t>28.44B</t>
-        </is>
+      <c r="P315" t="n">
+        <v>28440000000</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>103.00%</t>
+        </is>
       </c>
     </row>
     <row r="316">
@@ -18644,14 +19383,17 @@
       <c r="O316" t="n">
         <v>7</v>
       </c>
-      <c r="P316" t="inlineStr">
-        <is>
-          <t>15.6M</t>
-        </is>
+      <c r="P316" t="n">
+        <v>15600000</v>
       </c>
       <c r="Q316" t="n">
         <v>-1</v>
       </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>115.00%</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -18707,13 +19449,16 @@
       <c r="O317" t="n">
         <v>20</v>
       </c>
-      <c r="P317" t="inlineStr">
-        <is>
-          <t>113.65k</t>
-        </is>
+      <c r="P317" t="n">
+        <v>113650</v>
       </c>
       <c r="Q317" t="n">
         <v>-5</v>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>307.20%</t>
+        </is>
       </c>
     </row>
     <row r="318">
@@ -18766,14 +19511,13 @@
       <c r="O318" t="n">
         <v>-6</v>
       </c>
-      <c r="P318" t="inlineStr">
-        <is>
-          <t>465.93k</t>
-        </is>
+      <c r="P318" t="n">
+        <v>465930</v>
       </c>
       <c r="Q318" t="n">
         <v>-2</v>
       </c>
+      <c r="R318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -18827,14 +19571,13 @@
       <c r="O319" t="n">
         <v>-1</v>
       </c>
-      <c r="P319" t="inlineStr">
-        <is>
-          <t>3.74M</t>
-        </is>
+      <c r="P319" t="n">
+        <v>3740000</v>
       </c>
       <c r="Q319" t="n">
         <v>-0</v>
       </c>
+      <c r="R319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -18888,14 +19631,17 @@
       <c r="O320" t="n">
         <v>0</v>
       </c>
-      <c r="P320" t="inlineStr">
-        <is>
-          <t>2.42B</t>
-        </is>
+      <c r="P320" t="n">
+        <v>2420000000</v>
       </c>
       <c r="Q320" t="n">
         <v>-1</v>
       </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>63.00%</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -18947,12 +19693,15 @@
       <c r="O321" t="n">
         <v>1</v>
       </c>
-      <c r="P321" t="inlineStr">
-        <is>
-          <t>12.93M</t>
-        </is>
+      <c r="P321" t="n">
+        <v>12930000</v>
       </c>
       <c r="Q321" t="inlineStr"/>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>-9.60%</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -19006,13 +19755,16 @@
       <c r="O322" t="n">
         <v>3</v>
       </c>
-      <c r="P322" t="inlineStr">
-        <is>
-          <t>237.9M</t>
-        </is>
+      <c r="P322" t="n">
+        <v>237900000</v>
       </c>
       <c r="Q322" t="n">
         <v>2</v>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>98.80%</t>
+        </is>
       </c>
     </row>
     <row r="323">
@@ -19063,13 +19815,16 @@
       <c r="O323" t="n">
         <v>0</v>
       </c>
-      <c r="P323" t="inlineStr">
-        <is>
-          <t>63.35M</t>
-        </is>
+      <c r="P323" t="n">
+        <v>63350000</v>
       </c>
       <c r="Q323" t="n">
         <v>-0</v>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>-24.50%</t>
+        </is>
       </c>
     </row>
     <row r="324">
@@ -19120,12 +19875,15 @@
       <c r="O324" t="n">
         <v>0</v>
       </c>
-      <c r="P324" t="inlineStr">
-        <is>
-          <t>63.74B</t>
-        </is>
+      <c r="P324" t="n">
+        <v>63740000000</v>
       </c>
       <c r="Q324" t="inlineStr"/>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>26.40%</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -19175,6 +19933,7 @@
       <c r="Q325" t="n">
         <v>-0</v>
       </c>
+      <c r="R325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -19224,14 +19983,13 @@
       <c r="O326" t="n">
         <v>-2</v>
       </c>
-      <c r="P326" t="inlineStr">
-        <is>
-          <t>678.14k</t>
-        </is>
+      <c r="P326" t="n">
+        <v>678140</v>
       </c>
       <c r="Q326" t="n">
         <v>-302</v>
       </c>
+      <c r="R326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -19279,13 +20037,16 @@
       <c r="O327" t="n">
         <v>3</v>
       </c>
-      <c r="P327" t="inlineStr">
-        <is>
-          <t>1.78M</t>
-        </is>
+      <c r="P327" t="n">
+        <v>1780000</v>
       </c>
       <c r="Q327" t="n">
         <v>7</v>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>-13.00%</t>
+        </is>
       </c>
     </row>
   </sheetData>
